--- a/data/wood.xlsx
+++ b/data/wood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willjackson/Library/CloudStorage/GoogleDrive-wj@wovenandwoods.com/Shared drives/Office/Product Data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE2F37-E17A-2F42-BB2E-055733CB1FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECFD95C-4482-F748-AF20-F11A2422007D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6681" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6681" uniqueCount="1320">
   <si>
     <t>SKU</t>
   </si>
@@ -2562,9 +2562,6 @@
   </si>
   <si>
     <t>WO76304BES</t>
-  </si>
-  <si>
-    <t>Bespoke by Woven &amp; Woods</t>
   </si>
   <si>
     <t>WO27971BES</t>
@@ -4305,9 +4302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A543" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D539" sqref="D539:D612"/>
+      <selection pane="topRight" activeCell="C539" sqref="C539:C612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4337,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -4379,10 +4376,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -10003,7 +10000,7 @@
       <c r="Q109" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S109" t="s">
+      <c r="R109" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14575,7 +14572,7 @@
         <v>461</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>19</v>
@@ -14620,7 +14617,7 @@
         <v>461</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>19</v>
@@ -14668,7 +14665,7 @@
         <v>461</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>19</v>
@@ -14713,7 +14710,7 @@
         <v>461</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>19</v>
@@ -14761,7 +14758,7 @@
         <v>461</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>19</v>
@@ -14806,7 +14803,7 @@
         <v>461</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>19</v>
@@ -14854,7 +14851,7 @@
         <v>461</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>19</v>
@@ -14899,7 +14896,7 @@
         <v>461</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>19</v>
@@ -14947,7 +14944,7 @@
         <v>461</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>19</v>
@@ -14992,7 +14989,7 @@
         <v>461</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>19</v>
@@ -15040,7 +15037,7 @@
         <v>461</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>19</v>
@@ -15085,7 +15082,7 @@
         <v>461</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>19</v>
@@ -15133,7 +15130,7 @@
         <v>461</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>19</v>
@@ -15178,7 +15175,7 @@
         <v>461</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>19</v>
@@ -15226,7 +15223,7 @@
         <v>461</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>19</v>
@@ -15271,7 +15268,7 @@
         <v>461</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>19</v>
@@ -15319,7 +15316,7 @@
         <v>461</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>19</v>
@@ -15364,7 +15361,7 @@
         <v>461</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>19</v>
@@ -15412,7 +15409,7 @@
         <v>461</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>19</v>
@@ -15460,7 +15457,7 @@
         <v>461</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>19</v>
@@ -15505,7 +15502,7 @@
         <v>461</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>19</v>
@@ -15550,7 +15547,7 @@
         <v>461</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>19</v>
@@ -15598,7 +15595,7 @@
         <v>461</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>19</v>
@@ -15643,7 +15640,7 @@
         <v>461</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>19</v>
@@ -15688,7 +15685,7 @@
         <v>461</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>19</v>
@@ -15733,7 +15730,7 @@
         <v>461</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>19</v>
@@ -15778,7 +15775,7 @@
         <v>461</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>19</v>
@@ -15823,7 +15820,7 @@
         <v>461</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>19</v>
@@ -22100,7 +22097,7 @@
         <v>771</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>761</v>
@@ -22151,7 +22148,7 @@
         <v>760</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>761</v>
@@ -22202,7 +22199,7 @@
         <v>767</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>761</v>
@@ -22253,7 +22250,7 @@
         <v>768</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>761</v>
@@ -22304,7 +22301,7 @@
         <v>765</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>761</v>
@@ -22355,7 +22352,7 @@
         <v>769</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>761</v>
@@ -22406,7 +22403,7 @@
         <v>766</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>761</v>
@@ -22457,7 +22454,7 @@
         <v>770</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>761</v>
@@ -22508,7 +22505,7 @@
         <v>764</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>761</v>
@@ -22559,7 +22556,7 @@
         <v>763</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>761</v>
@@ -22607,10 +22604,10 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>761</v>
@@ -22658,10 +22655,10 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>761</v>
@@ -22709,10 +22706,10 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>761</v>
@@ -22760,10 +22757,10 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>761</v>
@@ -22811,10 +22808,10 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>761</v>
@@ -22862,10 +22859,10 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>761</v>
@@ -22913,10 +22910,10 @@
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>761</v>
@@ -22964,10 +22961,10 @@
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>761</v>
@@ -23015,10 +23012,10 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>761</v>
@@ -23066,10 +23063,10 @@
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>761</v>
@@ -23117,10 +23114,10 @@
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>761</v>
@@ -23147,7 +23144,7 @@
         <v>180</v>
       </c>
       <c r="L365" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M365" s="5">
         <v>74.55</v>
@@ -23168,10 +23165,10 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>761</v>
@@ -23198,7 +23195,7 @@
         <v>180</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M366" s="5">
         <v>74.55</v>
@@ -23219,10 +23216,10 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>761</v>
@@ -23249,7 +23246,7 @@
         <v>180</v>
       </c>
       <c r="L367" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M367" s="5">
         <v>74.55</v>
@@ -23270,10 +23267,10 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>761</v>
@@ -23300,7 +23297,7 @@
         <v>180</v>
       </c>
       <c r="L368" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M368" s="5">
         <v>74.55</v>
@@ -23321,10 +23318,10 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>761</v>
@@ -23351,7 +23348,7 @@
         <v>180</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M369" s="5">
         <v>74.55</v>
@@ -23372,10 +23369,10 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>761</v>
@@ -23402,7 +23399,7 @@
         <v>180</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M370" s="5">
         <v>74.55</v>
@@ -23423,10 +23420,10 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>761</v>
@@ -23453,7 +23450,7 @@
         <v>180</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M371" s="5">
         <v>74.55</v>
@@ -23474,10 +23471,10 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>761</v>
@@ -23504,7 +23501,7 @@
         <v>180</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M372" s="5">
         <v>74.55</v>
@@ -23525,10 +23522,10 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>761</v>
@@ -23555,7 +23552,7 @@
         <v>180</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M373" s="5">
         <v>87.05</v>
@@ -23576,10 +23573,10 @@
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>761</v>
@@ -23606,7 +23603,7 @@
         <v>180</v>
       </c>
       <c r="L374" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M374" s="5">
         <v>87.05</v>
@@ -23630,7 +23627,7 @@
         <v>837</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>761</v>
@@ -23681,7 +23678,7 @@
         <v>833</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>761</v>
@@ -23732,7 +23729,7 @@
         <v>831</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>761</v>
@@ -23783,7 +23780,7 @@
         <v>835</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>761</v>
@@ -23834,7 +23831,7 @@
         <v>836</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>761</v>
@@ -23885,7 +23882,7 @@
         <v>839</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>761</v>
@@ -23936,7 +23933,7 @@
         <v>834</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>761</v>
@@ -23987,7 +23984,7 @@
         <v>832</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>761</v>
@@ -24038,7 +24035,7 @@
         <v>790</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>761</v>
@@ -24089,7 +24086,7 @@
         <v>786</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>761</v>
@@ -24140,7 +24137,7 @@
         <v>782</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>761</v>
@@ -24191,7 +24188,7 @@
         <v>785</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>761</v>
@@ -24242,7 +24239,7 @@
         <v>783</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>761</v>
@@ -24293,7 +24290,7 @@
         <v>789</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>761</v>
@@ -24344,7 +24341,7 @@
         <v>784</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>761</v>
@@ -24395,7 +24392,7 @@
         <v>787</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>761</v>
@@ -24446,7 +24443,7 @@
         <v>788</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>761</v>
@@ -24497,7 +24494,7 @@
         <v>791</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>761</v>
@@ -24548,7 +24545,7 @@
         <v>780</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>761</v>
@@ -24599,7 +24596,7 @@
         <v>776</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>761</v>
@@ -24650,7 +24647,7 @@
         <v>772</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>761</v>
@@ -24701,7 +24698,7 @@
         <v>775</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>761</v>
@@ -24752,7 +24749,7 @@
         <v>773</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>761</v>
@@ -24803,7 +24800,7 @@
         <v>779</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>761</v>
@@ -24854,7 +24851,7 @@
         <v>774</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>761</v>
@@ -24905,7 +24902,7 @@
         <v>777</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>761</v>
@@ -24956,7 +24953,7 @@
         <v>778</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>761</v>
@@ -25007,7 +25004,7 @@
         <v>781</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>761</v>
@@ -25058,7 +25055,7 @@
         <v>802</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>761</v>
@@ -25109,7 +25106,7 @@
         <v>810</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>761</v>
@@ -25160,7 +25157,7 @@
         <v>811</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>761</v>
@@ -25211,7 +25208,7 @@
         <v>809</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>761</v>
@@ -25262,7 +25259,7 @@
         <v>804</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>761</v>
@@ -25313,7 +25310,7 @@
         <v>803</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>761</v>
@@ -25364,7 +25361,7 @@
         <v>808</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>761</v>
@@ -25415,7 +25412,7 @@
         <v>806</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>761</v>
@@ -25466,7 +25463,7 @@
         <v>807</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>761</v>
@@ -25517,7 +25514,7 @@
         <v>805</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>761</v>
@@ -25568,7 +25565,7 @@
         <v>793</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>761</v>
@@ -25619,7 +25616,7 @@
         <v>796</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>761</v>
@@ -25670,7 +25667,7 @@
         <v>801</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>761</v>
@@ -25721,7 +25718,7 @@
         <v>797</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>761</v>
@@ -25772,7 +25769,7 @@
         <v>795</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>761</v>
@@ -25823,7 +25820,7 @@
         <v>798</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>761</v>
@@ -25874,7 +25871,7 @@
         <v>792</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>761</v>
@@ -25925,7 +25922,7 @@
         <v>800</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>761</v>
@@ -25973,25 +25970,25 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
+        <v>974</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="C421" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="D421" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F421" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G421" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F421" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G421" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>22</v>
@@ -26024,25 +26021,25 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
+        <v>978</v>
+      </c>
+      <c r="B422" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B422" s="4" t="s">
-        <v>980</v>
-      </c>
       <c r="C422" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F422" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G422" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D422" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E422" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F422" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G422" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>22</v>
@@ -26075,25 +26072,25 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
+        <v>980</v>
+      </c>
+      <c r="B423" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B423" s="4" t="s">
-        <v>982</v>
-      </c>
       <c r="C423" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G423" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E423" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F423" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G423" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I423" s="4" t="s">
         <v>22</v>
@@ -26126,25 +26123,25 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
+        <v>982</v>
+      </c>
+      <c r="B424" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="B424" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="C424" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D424" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F424" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G424" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E424" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F424" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G424" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I424" s="4" t="s">
         <v>22</v>
@@ -26177,25 +26174,25 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
+        <v>984</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B425" s="4" t="s">
-        <v>986</v>
-      </c>
       <c r="C425" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F425" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G425" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E425" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F425" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G425" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I425" s="4" t="s">
         <v>22</v>
@@ -26228,25 +26225,25 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
+        <v>986</v>
+      </c>
+      <c r="B426" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>988</v>
-      </c>
       <c r="C426" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F426" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G426" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E426" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F426" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G426" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="I426" s="4" t="s">
         <v>22</v>
@@ -26279,25 +26276,25 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
+        <v>988</v>
+      </c>
+      <c r="B427" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="C427" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G427" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="C427" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E427" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F427" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G427" s="4" t="s">
-        <v>991</v>
       </c>
       <c r="I427" s="4" t="s">
         <v>22</v>
@@ -26327,16 +26324,16 @@
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
+        <v>991</v>
+      </c>
+      <c r="B428" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>993</v>
-      </c>
       <c r="C428" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E428" s="4" t="s">
         <v>19</v>
@@ -26345,7 +26342,7 @@
         <v>20</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I428" s="4" t="s">
         <v>22</v>
@@ -26378,16 +26375,16 @@
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
+        <v>993</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>995</v>
-      </c>
       <c r="C429" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E429" s="4" t="s">
         <v>19</v>
@@ -26396,7 +26393,7 @@
         <v>20</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I429" s="4" t="s">
         <v>22</v>
@@ -26429,16 +26426,16 @@
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
+        <v>995</v>
+      </c>
+      <c r="B430" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>997</v>
-      </c>
       <c r="C430" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>19</v>
@@ -26447,7 +26444,7 @@
         <v>20</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I430" s="4" t="s">
         <v>22</v>
@@ -26477,16 +26474,16 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
+        <v>997</v>
+      </c>
+      <c r="B431" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>999</v>
-      </c>
       <c r="C431" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E431" s="4" t="s">
         <v>19</v>
@@ -26495,7 +26492,7 @@
         <v>20</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I431" s="4" t="s">
         <v>22</v>
@@ -26525,16 +26522,16 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
+        <v>999</v>
+      </c>
+      <c r="B432" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>1001</v>
-      </c>
       <c r="C432" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>19</v>
@@ -26543,7 +26540,7 @@
         <v>20</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I432" s="4" t="s">
         <v>22</v>
@@ -26573,16 +26570,16 @@
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B433" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>1003</v>
-      </c>
       <c r="C433" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E433" s="4" t="s">
         <v>19</v>
@@ -26591,7 +26588,7 @@
         <v>20</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I433" s="4" t="s">
         <v>22</v>
@@ -26624,25 +26621,25 @@
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B434" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="C434" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D434" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F434" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G434" s="4" t="s">
         <v>1005</v>
-      </c>
-      <c r="C434" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="D434" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E434" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F434" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G434" s="4" t="s">
-        <v>1006</v>
       </c>
       <c r="I434" s="4" t="s">
         <v>22</v>
@@ -26678,16 +26675,16 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B435" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>1008</v>
-      </c>
       <c r="C435" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>19</v>
@@ -26696,7 +26693,7 @@
         <v>20</v>
       </c>
       <c r="G435" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I435" s="4" t="s">
         <v>22</v>
@@ -26726,16 +26723,16 @@
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B436" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B436" s="4" t="s">
-        <v>1010</v>
-      </c>
       <c r="C436" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>19</v>
@@ -26744,7 +26741,7 @@
         <v>20</v>
       </c>
       <c r="G436" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I436" s="4" t="s">
         <v>22</v>
@@ -26780,16 +26777,16 @@
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B437" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>1012</v>
-      </c>
       <c r="C437" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>19</v>
@@ -26798,7 +26795,7 @@
         <v>20</v>
       </c>
       <c r="G437" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I437" s="4" t="s">
         <v>22</v>
@@ -26834,16 +26831,16 @@
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B438" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B438" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="C438" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E438" s="4" t="s">
         <v>19</v>
@@ -26852,7 +26849,7 @@
         <v>20</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I438" s="4" t="s">
         <v>22</v>
@@ -26882,16 +26879,16 @@
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B439" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>1016</v>
-      </c>
       <c r="C439" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>19</v>
@@ -26900,7 +26897,7 @@
         <v>20</v>
       </c>
       <c r="G439" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I439" s="4" t="s">
         <v>22</v>
@@ -26936,16 +26933,16 @@
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B440" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>1018</v>
-      </c>
       <c r="C440" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>19</v>
@@ -26954,7 +26951,7 @@
         <v>20</v>
       </c>
       <c r="G440" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I440" s="4" t="s">
         <v>22</v>
@@ -26990,16 +26987,16 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B441" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>1020</v>
-      </c>
       <c r="C441" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>19</v>
@@ -27008,7 +27005,7 @@
         <v>20</v>
       </c>
       <c r="G441" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I441" s="4" t="s">
         <v>22</v>
@@ -27044,16 +27041,16 @@
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B442" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>1022</v>
-      </c>
       <c r="C442" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>19</v>
@@ -27062,7 +27059,7 @@
         <v>20</v>
       </c>
       <c r="G442" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I442" s="4" t="s">
         <v>22</v>
@@ -27098,16 +27095,16 @@
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B443" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>1024</v>
-      </c>
       <c r="C443" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>19</v>
@@ -27116,7 +27113,7 @@
         <v>20</v>
       </c>
       <c r="G443" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I443" s="4" t="s">
         <v>22</v>
@@ -27146,16 +27143,16 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B444" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="B444" s="4" t="s">
-        <v>1026</v>
-      </c>
       <c r="C444" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>19</v>
@@ -27164,7 +27161,7 @@
         <v>20</v>
       </c>
       <c r="G444" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I444" s="4" t="s">
         <v>22</v>
@@ -27200,16 +27197,16 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B445" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>1028</v>
-      </c>
       <c r="C445" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E445" s="4" t="s">
         <v>19</v>
@@ -27218,7 +27215,7 @@
         <v>20</v>
       </c>
       <c r="G445" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I445" s="4" t="s">
         <v>22</v>
@@ -27248,16 +27245,16 @@
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B446" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>1030</v>
-      </c>
       <c r="C446" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>19</v>
@@ -27266,7 +27263,7 @@
         <v>20</v>
       </c>
       <c r="G446" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I446" s="4" t="s">
         <v>22</v>
@@ -27302,16 +27299,16 @@
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B447" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>1032</v>
-      </c>
       <c r="C447" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>19</v>
@@ -27320,7 +27317,7 @@
         <v>20</v>
       </c>
       <c r="G447" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I447" s="4" t="s">
         <v>22</v>
@@ -27356,16 +27353,16 @@
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B448" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B448" s="4" t="s">
-        <v>1034</v>
-      </c>
       <c r="C448" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E448" s="4" t="s">
         <v>19</v>
@@ -27374,7 +27371,7 @@
         <v>20</v>
       </c>
       <c r="G448" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I448" s="4" t="s">
         <v>22</v>
@@ -27410,16 +27407,16 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B449" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="B449" s="4" t="s">
-        <v>1036</v>
-      </c>
       <c r="C449" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>19</v>
@@ -27428,7 +27425,7 @@
         <v>20</v>
       </c>
       <c r="G449" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I449" s="4" t="s">
         <v>22</v>
@@ -27464,16 +27461,16 @@
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B450" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="B450" s="4" t="s">
-        <v>1038</v>
-      </c>
       <c r="C450" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>19</v>
@@ -27482,7 +27479,7 @@
         <v>20</v>
       </c>
       <c r="G450" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>22</v>
@@ -27518,16 +27515,16 @@
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B451" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>1040</v>
-      </c>
       <c r="C451" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>19</v>
@@ -27536,7 +27533,7 @@
         <v>20</v>
       </c>
       <c r="G451" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I451" s="4" t="s">
         <v>22</v>
@@ -27566,16 +27563,16 @@
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B452" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="B452" s="4" t="s">
-        <v>1042</v>
-      </c>
       <c r="C452" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>19</v>
@@ -27584,7 +27581,7 @@
         <v>20</v>
       </c>
       <c r="G452" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I452" s="4" t="s">
         <v>22</v>
@@ -27620,16 +27617,16 @@
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B453" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="B453" s="4" t="s">
-        <v>1044</v>
-      </c>
       <c r="C453" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>19</v>
@@ -27638,7 +27635,7 @@
         <v>20</v>
       </c>
       <c r="G453" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I453" s="4" t="s">
         <v>22</v>
@@ -27674,16 +27671,16 @@
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B454" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="B454" s="4" t="s">
-        <v>1046</v>
-      </c>
       <c r="C454" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>19</v>
@@ -27692,7 +27689,7 @@
         <v>20</v>
       </c>
       <c r="G454" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I454" s="4" t="s">
         <v>22</v>
@@ -27728,16 +27725,16 @@
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B455" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B455" s="4" t="s">
-        <v>1048</v>
-      </c>
       <c r="C455" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>19</v>
@@ -27746,7 +27743,7 @@
         <v>85</v>
       </c>
       <c r="G455" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I455" s="4" t="s">
         <v>22</v>
@@ -27782,16 +27779,16 @@
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B456" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="B456" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="C456" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>19</v>
@@ -27800,7 +27797,7 @@
         <v>85</v>
       </c>
       <c r="G456" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I456" s="4" t="s">
         <v>22</v>
@@ -27836,16 +27833,16 @@
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="B457" s="4" t="s">
-        <v>1052</v>
-      </c>
       <c r="C457" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>19</v>
@@ -27854,7 +27851,7 @@
         <v>202</v>
       </c>
       <c r="G457" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I457" s="4" t="s">
         <v>22</v>
@@ -27884,16 +27881,16 @@
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B458" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B458" s="4" t="s">
-        <v>1054</v>
-      </c>
       <c r="C458" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>19</v>
@@ -27902,7 +27899,7 @@
         <v>85</v>
       </c>
       <c r="G458" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I458" s="4" t="s">
         <v>22</v>
@@ -27938,16 +27935,16 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="B459" s="4" t="s">
-        <v>1056</v>
-      </c>
       <c r="C459" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>19</v>
@@ -27956,7 +27953,7 @@
         <v>85</v>
       </c>
       <c r="G459" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I459" s="4" t="s">
         <v>22</v>
@@ -27992,16 +27989,16 @@
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B460" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="B460" s="4" t="s">
-        <v>1058</v>
-      </c>
       <c r="C460" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>19</v>
@@ -28010,7 +28007,7 @@
         <v>85</v>
       </c>
       <c r="G460" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I460" s="4" t="s">
         <v>22</v>
@@ -28040,16 +28037,16 @@
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="B461" s="4" t="s">
-        <v>1060</v>
-      </c>
       <c r="C461" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>19</v>
@@ -28058,7 +28055,7 @@
         <v>202</v>
       </c>
       <c r="G461" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I461" s="4" t="s">
         <v>22</v>
@@ -28088,16 +28085,16 @@
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B462" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="B462" s="4" t="s">
-        <v>1062</v>
-      </c>
       <c r="C462" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>19</v>
@@ -28106,7 +28103,7 @@
         <v>85</v>
       </c>
       <c r="G462" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I462" s="4" t="s">
         <v>22</v>
@@ -28136,16 +28133,16 @@
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B463" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="B463" s="4" t="s">
-        <v>1064</v>
-      </c>
       <c r="C463" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>19</v>
@@ -28154,7 +28151,7 @@
         <v>85</v>
       </c>
       <c r="G463" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I463" s="4" t="s">
         <v>22</v>
@@ -28190,16 +28187,16 @@
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B464" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="B464" s="4" t="s">
-        <v>1066</v>
-      </c>
       <c r="C464" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>19</v>
@@ -28208,7 +28205,7 @@
         <v>85</v>
       </c>
       <c r="G464" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>22</v>
@@ -28244,16 +28241,16 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B465" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>1068</v>
-      </c>
       <c r="C465" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>19</v>
@@ -28262,7 +28259,7 @@
         <v>85</v>
       </c>
       <c r="G465" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I465" s="4" t="s">
         <v>22</v>
@@ -28298,16 +28295,16 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B466" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B466" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C466" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>19</v>
@@ -28316,7 +28313,7 @@
         <v>85</v>
       </c>
       <c r="G466" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I466" s="4" t="s">
         <v>22</v>
@@ -28352,16 +28349,16 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B467" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="B467" s="4" t="s">
-        <v>1072</v>
-      </c>
       <c r="C467" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>19</v>
@@ -28370,7 +28367,7 @@
         <v>85</v>
       </c>
       <c r="G467" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I467" s="4" t="s">
         <v>22</v>
@@ -28406,16 +28403,16 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B468" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="B468" s="4" t="s">
-        <v>1074</v>
-      </c>
       <c r="C468" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>19</v>
@@ -28424,7 +28421,7 @@
         <v>85</v>
       </c>
       <c r="G468" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I468" s="4" t="s">
         <v>22</v>
@@ -28460,16 +28457,16 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B469" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="B469" s="4" t="s">
-        <v>1076</v>
-      </c>
       <c r="C469" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>19</v>
@@ -28478,7 +28475,7 @@
         <v>85</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I469" s="4" t="s">
         <v>22</v>
@@ -28514,16 +28511,16 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B470" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1078</v>
-      </c>
       <c r="C470" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>19</v>
@@ -28532,7 +28529,7 @@
         <v>85</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I470" s="4" t="s">
         <v>22</v>
@@ -28562,16 +28559,16 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B471" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B471" s="4" t="s">
-        <v>1080</v>
-      </c>
       <c r="C471" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>19</v>
@@ -28580,7 +28577,7 @@
         <v>85</v>
       </c>
       <c r="G471" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I471" s="4" t="s">
         <v>22</v>
@@ -28610,16 +28607,16 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B472" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>1082</v>
-      </c>
       <c r="C472" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>19</v>
@@ -28628,7 +28625,7 @@
         <v>85</v>
       </c>
       <c r="G472" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I472" s="4" t="s">
         <v>22</v>
@@ -28658,16 +28655,16 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B473" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="B473" s="4" t="s">
-        <v>1084</v>
-      </c>
       <c r="C473" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>19</v>
@@ -28706,16 +28703,16 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B474" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>1086</v>
-      </c>
       <c r="C474" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E474" s="4" t="s">
         <v>19</v>
@@ -28754,16 +28751,16 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B475" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="B475" s="4" t="s">
-        <v>1088</v>
-      </c>
       <c r="C475" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>19</v>
@@ -28802,16 +28799,16 @@
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B476" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>1090</v>
-      </c>
       <c r="C476" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>19</v>
@@ -28850,25 +28847,25 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B477" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="C477" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E477" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F477" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G477" s="4" t="s">
         <v>1092</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="D477" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E477" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F477" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G477" s="4" t="s">
-        <v>1093</v>
       </c>
       <c r="I477" s="4" t="s">
         <v>22</v>
@@ -28901,16 +28898,16 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B478" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>1095</v>
-      </c>
       <c r="C478" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>19</v>
@@ -28919,7 +28916,7 @@
         <v>20</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I478" s="4" t="s">
         <v>22</v>
@@ -28952,16 +28949,16 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B479" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="B479" s="4" t="s">
-        <v>1097</v>
-      </c>
       <c r="C479" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>19</v>
@@ -28970,7 +28967,7 @@
         <v>20</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I479" s="4" t="s">
         <v>22</v>
@@ -29003,16 +29000,16 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B480" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="B480" s="4" t="s">
-        <v>1099</v>
-      </c>
       <c r="C480" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>19</v>
@@ -29021,7 +29018,7 @@
         <v>20</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I480" s="4" t="s">
         <v>22</v>
@@ -29054,16 +29051,16 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B481" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>1101</v>
-      </c>
       <c r="C481" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E481" s="4" t="s">
         <v>19</v>
@@ -29072,7 +29069,7 @@
         <v>20</v>
       </c>
       <c r="G481" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I481" s="4" t="s">
         <v>22</v>
@@ -29105,16 +29102,16 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B482" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="B482" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="C482" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>19</v>
@@ -29123,7 +29120,7 @@
         <v>20</v>
       </c>
       <c r="G482" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I482" s="4" t="s">
         <v>22</v>
@@ -29156,16 +29153,16 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B483" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="B483" s="4" t="s">
-        <v>1105</v>
-      </c>
       <c r="C483" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E483" s="4" t="s">
         <v>19</v>
@@ -29174,7 +29171,7 @@
         <v>20</v>
       </c>
       <c r="G483" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I483" s="4" t="s">
         <v>22</v>
@@ -29207,16 +29204,16 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B484" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="B484" s="4" t="s">
-        <v>1107</v>
-      </c>
       <c r="C484" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E484" s="4" t="s">
         <v>19</v>
@@ -29225,7 +29222,7 @@
         <v>20</v>
       </c>
       <c r="G484" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I484" s="4" t="s">
         <v>22</v>
@@ -29258,16 +29255,16 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B485" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>1109</v>
-      </c>
       <c r="C485" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>19</v>
@@ -29276,7 +29273,7 @@
         <v>20</v>
       </c>
       <c r="G485" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I485" s="4" t="s">
         <v>22</v>
@@ -29309,16 +29306,16 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B486" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>1111</v>
-      </c>
       <c r="C486" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>19</v>
@@ -29327,7 +29324,7 @@
         <v>20</v>
       </c>
       <c r="G486" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I486" s="4" t="s">
         <v>22</v>
@@ -29357,16 +29354,16 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B487" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="B487" s="4" t="s">
-        <v>1113</v>
-      </c>
       <c r="C487" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>19</v>
@@ -29375,7 +29372,7 @@
         <v>20</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I487" s="4" t="s">
         <v>22</v>
@@ -29405,16 +29402,16 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B488" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="B488" s="4" t="s">
-        <v>1115</v>
-      </c>
       <c r="C488" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>19</v>
@@ -29423,7 +29420,7 @@
         <v>20</v>
       </c>
       <c r="G488" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I488" s="4" t="s">
         <v>22</v>
@@ -29453,16 +29450,16 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B489" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="B489" s="4" t="s">
-        <v>1117</v>
-      </c>
       <c r="C489" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E489" s="4" t="s">
         <v>19</v>
@@ -29471,7 +29468,7 @@
         <v>20</v>
       </c>
       <c r="G489" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I489" s="4" t="s">
         <v>22</v>
@@ -29504,16 +29501,16 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B490" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>1119</v>
-      </c>
       <c r="C490" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>19</v>
@@ -29522,7 +29519,7 @@
         <v>20</v>
       </c>
       <c r="G490" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I490" s="4" t="s">
         <v>22</v>
@@ -29555,16 +29552,16 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B491" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="B491" s="4" t="s">
-        <v>1121</v>
-      </c>
       <c r="C491" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>19</v>
@@ -29573,7 +29570,7 @@
         <v>20</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I491" s="4" t="s">
         <v>22</v>
@@ -29609,16 +29606,16 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B492" s="4" t="s">
         <v>1122</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>1123</v>
-      </c>
       <c r="C492" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E492" s="4" t="s">
         <v>19</v>
@@ -29627,7 +29624,7 @@
         <v>20</v>
       </c>
       <c r="G492" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I492" s="4" t="s">
         <v>22</v>
@@ -29663,16 +29660,16 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="B493" s="4" t="s">
-        <v>1125</v>
-      </c>
       <c r="C493" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>19</v>
@@ -29681,7 +29678,7 @@
         <v>20</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I493" s="4" t="s">
         <v>22</v>
@@ -29717,16 +29714,16 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>1127</v>
-      </c>
       <c r="C494" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>19</v>
@@ -29735,7 +29732,7 @@
         <v>20</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I494" s="4" t="s">
         <v>22</v>
@@ -29771,25 +29768,25 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B495" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="B495" s="4" t="s">
+      <c r="C495" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F495" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G495" s="4" t="s">
         <v>1129</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="D495" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="E495" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F495" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G495" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="I495" s="4" t="s">
         <v>22</v>
@@ -29819,16 +29816,16 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B496" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1132</v>
-      </c>
       <c r="C496" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E496" s="4" t="s">
         <v>19</v>
@@ -29837,7 +29834,7 @@
         <v>20</v>
       </c>
       <c r="G496" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I496" s="4" t="s">
         <v>22</v>
@@ -29873,16 +29870,16 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B497" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="B497" s="4" t="s">
-        <v>1134</v>
-      </c>
       <c r="C497" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>19</v>
@@ -29891,7 +29888,7 @@
         <v>20</v>
       </c>
       <c r="G497" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I497" s="4" t="s">
         <v>22</v>
@@ -29927,16 +29924,16 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="B498" s="4" t="s">
-        <v>1136</v>
-      </c>
       <c r="C498" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E498" s="4" t="s">
         <v>19</v>
@@ -29945,7 +29942,7 @@
         <v>20</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I498" s="4" t="s">
         <v>22</v>
@@ -29981,16 +29978,16 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>1138</v>
-      </c>
       <c r="C499" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E499" s="4" t="s">
         <v>19</v>
@@ -29999,7 +29996,7 @@
         <v>20</v>
       </c>
       <c r="G499" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I499" s="4" t="s">
         <v>187</v>
@@ -30035,16 +30032,16 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B500" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="B500" s="4" t="s">
-        <v>1140</v>
-      </c>
       <c r="C500" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E500" s="4" t="s">
         <v>19</v>
@@ -30053,7 +30050,7 @@
         <v>20</v>
       </c>
       <c r="G500" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I500" s="4" t="s">
         <v>22</v>
@@ -30089,16 +30086,16 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B501" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="B501" s="4" t="s">
-        <v>1142</v>
-      </c>
       <c r="C501" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E501" s="4" t="s">
         <v>19</v>
@@ -30107,7 +30104,7 @@
         <v>20</v>
       </c>
       <c r="G501" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I501" s="4" t="s">
         <v>22</v>
@@ -30137,16 +30134,16 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B502" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="B502" s="4" t="s">
-        <v>1144</v>
-      </c>
       <c r="C502" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E502" s="4" t="s">
         <v>19</v>
@@ -30155,7 +30152,7 @@
         <v>20</v>
       </c>
       <c r="G502" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>22</v>
@@ -30185,16 +30182,16 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B503" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="B503" s="4" t="s">
-        <v>1146</v>
-      </c>
       <c r="C503" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E503" s="4" t="s">
         <v>19</v>
@@ -30203,7 +30200,7 @@
         <v>20</v>
       </c>
       <c r="G503" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I503" s="4" t="s">
         <v>22</v>
@@ -30239,25 +30236,25 @@
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B504" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="B504" s="4" t="s">
-        <v>1148</v>
-      </c>
       <c r="C504" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E504" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G504" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I504" s="4" t="s">
         <v>22</v>
@@ -30290,25 +30287,25 @@
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B505" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="B505" s="4" t="s">
-        <v>1150</v>
-      </c>
       <c r="C505" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E505" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G505" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I505" s="4" t="s">
         <v>22</v>
@@ -30338,25 +30335,25 @@
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B506" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="B506" s="4" t="s">
-        <v>1152</v>
-      </c>
       <c r="C506" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E506" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G506" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I506" s="4" t="s">
         <v>22</v>
@@ -30386,25 +30383,25 @@
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B507" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="B507" s="4" t="s">
-        <v>1154</v>
-      </c>
       <c r="C507" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E507" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G507" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I507" s="4" t="s">
         <v>22</v>
@@ -30434,25 +30431,25 @@
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B508" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="B508" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="C508" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E508" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G508" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I508" s="4" t="s">
         <v>22</v>
@@ -30482,25 +30479,25 @@
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B509" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="B509" s="4" t="s">
-        <v>1158</v>
-      </c>
       <c r="C509" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E509" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F509" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G509" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I509" s="4" t="s">
         <v>22</v>
@@ -30533,7 +30530,7 @@
         <v>794</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>761</v>
@@ -30584,7 +30581,7 @@
         <v>799</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>761</v>
@@ -30632,10 +30629,10 @@
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>761</v>
@@ -30647,16 +30644,16 @@
         <v>19</v>
       </c>
       <c r="F512" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G512" s="4">
         <v>21</v>
       </c>
       <c r="I512" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J512" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J512" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K512" s="4">
         <v>600</v>
@@ -30680,10 +30677,10 @@
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>761</v>
@@ -30695,16 +30692,16 @@
         <v>19</v>
       </c>
       <c r="F513" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G513" s="4">
         <v>21</v>
       </c>
       <c r="I513" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J513" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J513" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K513" s="4">
         <v>600</v>
@@ -30728,10 +30725,10 @@
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>761</v>
@@ -30743,16 +30740,16 @@
         <v>19</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G514" s="4">
         <v>21</v>
       </c>
       <c r="I514" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J514" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J514" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K514" s="4">
         <v>600</v>
@@ -30776,10 +30773,10 @@
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>761</v>
@@ -30791,16 +30788,16 @@
         <v>19</v>
       </c>
       <c r="F515" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G515" s="4">
         <v>21</v>
       </c>
       <c r="I515" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J515" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J515" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K515" s="4">
         <v>600</v>
@@ -30824,10 +30821,10 @@
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>761</v>
@@ -30839,16 +30836,16 @@
         <v>19</v>
       </c>
       <c r="F516" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G516" s="4">
         <v>21</v>
       </c>
       <c r="I516" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J516" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J516" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K516" s="4">
         <v>600</v>
@@ -30872,10 +30869,10 @@
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>761</v>
@@ -30887,16 +30884,16 @@
         <v>19</v>
       </c>
       <c r="F517" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G517" s="4">
         <v>21</v>
       </c>
       <c r="I517" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J517" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J517" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K517" s="4">
         <v>600</v>
@@ -30920,10 +30917,10 @@
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>761</v>
@@ -30935,16 +30932,16 @@
         <v>19</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G518" s="4">
         <v>21</v>
       </c>
       <c r="I518" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J518" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J518" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K518" s="4">
         <v>600</v>
@@ -30968,10 +30965,10 @@
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>761</v>
@@ -30983,16 +30980,16 @@
         <v>19</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G519" s="4">
         <v>21</v>
       </c>
       <c r="I519" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J519" s="8" t="s">
         <v>1287</v>
-      </c>
-      <c r="J519" s="8" t="s">
-        <v>1288</v>
       </c>
       <c r="K519" s="4">
         <v>600</v>
@@ -31019,7 +31016,7 @@
         <v>815</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>761</v>
@@ -31070,7 +31067,7 @@
         <v>812</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C521" s="4" t="s">
         <v>761</v>
@@ -31121,7 +31118,7 @@
         <v>814</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>761</v>
@@ -31172,7 +31169,7 @@
         <v>813</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>761</v>
@@ -31223,7 +31220,7 @@
         <v>816</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>761</v>
@@ -31274,7 +31271,7 @@
         <v>820</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>761</v>
@@ -31325,7 +31322,7 @@
         <v>817</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>761</v>
@@ -31376,7 +31373,7 @@
         <v>819</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>761</v>
@@ -31427,7 +31424,7 @@
         <v>818</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C528" s="4" t="s">
         <v>761</v>
@@ -31478,7 +31475,7 @@
         <v>821</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>761</v>
@@ -31529,7 +31526,7 @@
         <v>826</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C530" s="4" t="s">
         <v>761</v>
@@ -31580,7 +31577,7 @@
         <v>822</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>761</v>
@@ -31631,7 +31628,7 @@
         <v>825</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>761</v>
@@ -31682,7 +31679,7 @@
         <v>824</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>761</v>
@@ -31733,7 +31730,7 @@
         <v>827</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>761</v>
@@ -31784,7 +31781,7 @@
         <v>828</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>761</v>
@@ -31832,7 +31829,7 @@
         <v>829</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>761</v>
@@ -31880,7 +31877,7 @@
         <v>830</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>761</v>
@@ -31892,7 +31889,7 @@
         <v>19</v>
       </c>
       <c r="F537" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G537" s="4">
         <v>20</v>
@@ -31925,16 +31922,16 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B538" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="B538" s="4" t="s">
-        <v>1297</v>
-      </c>
       <c r="C538" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E538" s="4" t="s">
         <v>19</v>
@@ -31943,7 +31940,7 @@
         <v>20</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I538" s="4" t="s">
         <v>22</v>
@@ -31982,13 +31979,13 @@
         <v>840</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E539" s="4" t="s">
         <v>19</v>
@@ -32030,16 +32027,16 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E540" s="4" t="s">
         <v>19</v>
@@ -32081,16 +32078,16 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E541" s="4" t="s">
         <v>19</v>
@@ -32132,16 +32129,16 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E542" s="4" t="s">
         <v>19</v>
@@ -32183,16 +32180,16 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E543" s="4" t="s">
         <v>19</v>
@@ -32234,16 +32231,16 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E544" s="4" t="s">
         <v>19</v>
@@ -32285,16 +32282,16 @@
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E545" s="4" t="s">
         <v>19</v>
@@ -32336,16 +32333,16 @@
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>19</v>
@@ -32387,16 +32384,16 @@
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E547" s="4" t="s">
         <v>19</v>
@@ -32438,16 +32435,16 @@
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E548" s="4" t="s">
         <v>19</v>
@@ -32489,16 +32486,16 @@
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>19</v>
@@ -32537,16 +32534,16 @@
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E550" s="4" t="s">
         <v>19</v>
@@ -32585,16 +32582,16 @@
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E551" s="4" t="s">
         <v>19</v>
@@ -32633,16 +32630,16 @@
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E552" s="4" t="s">
         <v>19</v>
@@ -32681,16 +32678,16 @@
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E553" s="4" t="s">
         <v>19</v>
@@ -32729,16 +32726,16 @@
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E554" s="4" t="s">
         <v>19</v>
@@ -32777,16 +32774,16 @@
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>19</v>
@@ -32825,16 +32822,16 @@
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E556" s="4" t="s">
         <v>19</v>
@@ -32873,16 +32870,16 @@
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
+        <v>858</v>
+      </c>
+      <c r="B557" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="B557" s="4" t="s">
-        <v>860</v>
-      </c>
       <c r="C557" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E557" s="4" t="s">
         <v>19</v>
@@ -32921,16 +32918,16 @@
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
+        <v>860</v>
+      </c>
+      <c r="B558" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="B558" s="4" t="s">
-        <v>862</v>
-      </c>
       <c r="C558" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E558" s="4" t="s">
         <v>19</v>
@@ -32969,25 +32966,25 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
+        <v>862</v>
+      </c>
+      <c r="B559" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="C559" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F559" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G559" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="C559" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E559" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F559" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G559" s="6" t="s">
-        <v>865</v>
       </c>
       <c r="I559" s="4" t="s">
         <v>22</v>
@@ -32999,7 +32996,7 @@
         <v>180</v>
       </c>
       <c r="L559" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M559" s="7">
         <v>61.95</v>
@@ -33020,16 +33017,16 @@
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
+        <v>866</v>
+      </c>
+      <c r="B560" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B560" s="4" t="s">
-        <v>868</v>
-      </c>
       <c r="C560" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E560" s="4" t="s">
         <v>19</v>
@@ -33038,7 +33035,7 @@
         <v>20</v>
       </c>
       <c r="G560" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I560" s="4" t="s">
         <v>22</v>
@@ -33050,7 +33047,7 @@
         <v>180</v>
       </c>
       <c r="L560" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M560" s="7">
         <v>61.95</v>
@@ -33071,16 +33068,16 @@
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
+        <v>868</v>
+      </c>
+      <c r="B561" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B561" s="4" t="s">
-        <v>870</v>
-      </c>
       <c r="C561" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E561" s="4" t="s">
         <v>19</v>
@@ -33089,7 +33086,7 @@
         <v>20</v>
       </c>
       <c r="G561" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I561" s="4" t="s">
         <v>22</v>
@@ -33101,7 +33098,7 @@
         <v>180</v>
       </c>
       <c r="L561" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M561" s="7">
         <v>61.95</v>
@@ -33122,16 +33119,16 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
+        <v>870</v>
+      </c>
+      <c r="B562" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B562" s="4" t="s">
-        <v>872</v>
-      </c>
       <c r="C562" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E562" s="4" t="s">
         <v>19</v>
@@ -33140,7 +33137,7 @@
         <v>20</v>
       </c>
       <c r="G562" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I562" s="4" t="s">
         <v>22</v>
@@ -33152,7 +33149,7 @@
         <v>180</v>
       </c>
       <c r="L562" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M562" s="7">
         <v>61.95</v>
@@ -33170,16 +33167,16 @@
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
+        <v>872</v>
+      </c>
+      <c r="B563" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="B563" s="4" t="s">
-        <v>874</v>
-      </c>
       <c r="C563" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E563" s="4" t="s">
         <v>19</v>
@@ -33188,7 +33185,7 @@
         <v>20</v>
       </c>
       <c r="G563" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I563" s="4" t="s">
         <v>22</v>
@@ -33200,7 +33197,7 @@
         <v>180</v>
       </c>
       <c r="L563" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M563" s="7">
         <v>56.95</v>
@@ -33218,16 +33215,16 @@
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
+        <v>874</v>
+      </c>
+      <c r="B564" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B564" s="4" t="s">
-        <v>876</v>
-      </c>
       <c r="C564" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E564" s="4" t="s">
         <v>19</v>
@@ -33236,7 +33233,7 @@
         <v>20</v>
       </c>
       <c r="G564" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I564" s="4" t="s">
         <v>22</v>
@@ -33248,7 +33245,7 @@
         <v>180</v>
       </c>
       <c r="L564" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M564" s="7">
         <v>61.95</v>
@@ -33266,16 +33263,16 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
+        <v>876</v>
+      </c>
+      <c r="B565" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B565" s="4" t="s">
-        <v>878</v>
-      </c>
       <c r="C565" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E565" s="4" t="s">
         <v>19</v>
@@ -33284,7 +33281,7 @@
         <v>20</v>
       </c>
       <c r="G565" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I565" s="4" t="s">
         <v>22</v>
@@ -33296,7 +33293,7 @@
         <v>180</v>
       </c>
       <c r="L565" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M565" s="7">
         <v>56.95</v>
@@ -33314,16 +33311,16 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
+        <v>878</v>
+      </c>
+      <c r="B566" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="B566" s="4" t="s">
-        <v>880</v>
-      </c>
       <c r="C566" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E566" s="4" t="s">
         <v>19</v>
@@ -33332,7 +33329,7 @@
         <v>20</v>
       </c>
       <c r="G566" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I566" s="4" t="s">
         <v>22</v>
@@ -33344,7 +33341,7 @@
         <v>180</v>
       </c>
       <c r="L566" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M566" s="7">
         <v>56.95</v>
@@ -33362,16 +33359,16 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
+        <v>880</v>
+      </c>
+      <c r="B567" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="B567" s="4" t="s">
-        <v>882</v>
-      </c>
       <c r="C567" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E567" s="4" t="s">
         <v>19</v>
@@ -33380,7 +33377,7 @@
         <v>20</v>
       </c>
       <c r="G567" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I567" s="4" t="s">
         <v>22</v>
@@ -33392,7 +33389,7 @@
         <v>180</v>
       </c>
       <c r="L567" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M567" s="7">
         <v>61.95</v>
@@ -33410,16 +33407,16 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
+        <v>882</v>
+      </c>
+      <c r="B568" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="B568" s="4" t="s">
-        <v>884</v>
-      </c>
       <c r="C568" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E568" s="4" t="s">
         <v>19</v>
@@ -33428,7 +33425,7 @@
         <v>85</v>
       </c>
       <c r="G568" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I568" s="4" t="s">
         <v>22</v>
@@ -33458,16 +33455,16 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
+        <v>884</v>
+      </c>
+      <c r="B569" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B569" s="4" t="s">
-        <v>886</v>
-      </c>
       <c r="C569" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E569" s="4" t="s">
         <v>19</v>
@@ -33476,7 +33473,7 @@
         <v>85</v>
       </c>
       <c r="G569" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I569" s="4" t="s">
         <v>22</v>
@@ -33506,16 +33503,16 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
+        <v>886</v>
+      </c>
+      <c r="B570" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B570" s="4" t="s">
-        <v>888</v>
-      </c>
       <c r="C570" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E570" s="4" t="s">
         <v>19</v>
@@ -33524,7 +33521,7 @@
         <v>85</v>
       </c>
       <c r="G570" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I570" s="4" t="s">
         <v>22</v>
@@ -33554,16 +33551,16 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
+        <v>888</v>
+      </c>
+      <c r="B571" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="B571" s="4" t="s">
-        <v>890</v>
-      </c>
       <c r="C571" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E571" s="4" t="s">
         <v>19</v>
@@ -33572,7 +33569,7 @@
         <v>85</v>
       </c>
       <c r="G571" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I571" s="4" t="s">
         <v>22</v>
@@ -33605,16 +33602,16 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
+        <v>890</v>
+      </c>
+      <c r="B572" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B572" s="4" t="s">
-        <v>892</v>
-      </c>
       <c r="C572" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E572" s="4" t="s">
         <v>19</v>
@@ -33623,7 +33620,7 @@
         <v>85</v>
       </c>
       <c r="G572" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I572" s="4" t="s">
         <v>22</v>
@@ -33656,16 +33653,16 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
+        <v>892</v>
+      </c>
+      <c r="B573" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B573" s="4" t="s">
-        <v>894</v>
-      </c>
       <c r="C573" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E573" s="4" t="s">
         <v>19</v>
@@ -33674,7 +33671,7 @@
         <v>85</v>
       </c>
       <c r="G573" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I573" s="4" t="s">
         <v>22</v>
@@ -33707,16 +33704,16 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
+        <v>894</v>
+      </c>
+      <c r="B574" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B574" s="4" t="s">
-        <v>896</v>
-      </c>
       <c r="C574" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E574" s="4" t="s">
         <v>19</v>
@@ -33725,7 +33722,7 @@
         <v>85</v>
       </c>
       <c r="G574" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I574" s="4" t="s">
         <v>22</v>
@@ -33758,16 +33755,16 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
+        <v>896</v>
+      </c>
+      <c r="B575" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B575" s="4" t="s">
-        <v>898</v>
-      </c>
       <c r="C575" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E575" s="4" t="s">
         <v>19</v>
@@ -33776,7 +33773,7 @@
         <v>85</v>
       </c>
       <c r="G575" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I575" s="4" t="s">
         <v>22</v>
@@ -33809,16 +33806,16 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
+        <v>898</v>
+      </c>
+      <c r="B576" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B576" s="4" t="s">
-        <v>900</v>
-      </c>
       <c r="C576" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E576" s="4" t="s">
         <v>19</v>
@@ -33827,7 +33824,7 @@
         <v>85</v>
       </c>
       <c r="G576" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I576" s="4" t="s">
         <v>22</v>
@@ -33860,16 +33857,16 @@
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
+        <v>900</v>
+      </c>
+      <c r="B577" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="B577" s="4" t="s">
-        <v>902</v>
-      </c>
       <c r="C577" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E577" s="4" t="s">
         <v>19</v>
@@ -33878,7 +33875,7 @@
         <v>85</v>
       </c>
       <c r="G577" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>22</v>
@@ -33911,16 +33908,16 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
+        <v>903</v>
+      </c>
+      <c r="B578" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="B578" s="4" t="s">
-        <v>905</v>
-      </c>
       <c r="C578" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E578" s="4" t="s">
         <v>19</v>
@@ -33929,7 +33926,7 @@
         <v>85</v>
       </c>
       <c r="G578" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>22</v>
@@ -33962,16 +33959,16 @@
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
+        <v>905</v>
+      </c>
+      <c r="B579" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B579" s="4" t="s">
-        <v>907</v>
-      </c>
       <c r="C579" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E579" s="4" t="s">
         <v>19</v>
@@ -33980,7 +33977,7 @@
         <v>85</v>
       </c>
       <c r="G579" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>22</v>
@@ -34010,16 +34007,16 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
+        <v>907</v>
+      </c>
+      <c r="B580" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="B580" s="4" t="s">
-        <v>909</v>
-      </c>
       <c r="C580" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E580" s="4" t="s">
         <v>19</v>
@@ -34028,7 +34025,7 @@
         <v>85</v>
       </c>
       <c r="G580" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>22</v>
@@ -34061,16 +34058,16 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
+        <v>909</v>
+      </c>
+      <c r="B581" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="B581" s="4" t="s">
-        <v>911</v>
-      </c>
       <c r="C581" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E581" s="4" t="s">
         <v>19</v>
@@ -34079,7 +34076,7 @@
         <v>85</v>
       </c>
       <c r="G581" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>22</v>
@@ -34112,16 +34109,16 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
+        <v>911</v>
+      </c>
+      <c r="B582" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="B582" s="4" t="s">
-        <v>913</v>
-      </c>
       <c r="C582" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E582" s="4" t="s">
         <v>19</v>
@@ -34130,7 +34127,7 @@
         <v>85</v>
       </c>
       <c r="G582" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>22</v>
@@ -34163,16 +34160,16 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
+        <v>913</v>
+      </c>
+      <c r="B583" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B583" s="4" t="s">
-        <v>915</v>
-      </c>
       <c r="C583" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E583" s="4" t="s">
         <v>19</v>
@@ -34181,7 +34178,7 @@
         <v>85</v>
       </c>
       <c r="G583" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I583" s="4" t="s">
         <v>22</v>
@@ -34214,16 +34211,16 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
+        <v>915</v>
+      </c>
+      <c r="B584" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="B584" s="4" t="s">
-        <v>917</v>
-      </c>
       <c r="C584" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E584" s="4" t="s">
         <v>19</v>
@@ -34232,7 +34229,7 @@
         <v>85</v>
       </c>
       <c r="G584" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I584" s="4" t="s">
         <v>22</v>
@@ -34265,16 +34262,16 @@
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
+        <v>917</v>
+      </c>
+      <c r="B585" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="B585" s="4" t="s">
-        <v>919</v>
-      </c>
       <c r="C585" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E585" s="4" t="s">
         <v>19</v>
@@ -34283,7 +34280,7 @@
         <v>85</v>
       </c>
       <c r="G585" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I585" s="4" t="s">
         <v>22</v>
@@ -34313,16 +34310,16 @@
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
+        <v>919</v>
+      </c>
+      <c r="B586" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B586" s="4" t="s">
-        <v>921</v>
-      </c>
       <c r="C586" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E586" s="4" t="s">
         <v>19</v>
@@ -34331,7 +34328,7 @@
         <v>85</v>
       </c>
       <c r="G586" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I586" s="4" t="s">
         <v>22</v>
@@ -34364,16 +34361,16 @@
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
+        <v>921</v>
+      </c>
+      <c r="B587" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="B587" s="4" t="s">
-        <v>923</v>
-      </c>
       <c r="C587" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E587" s="4" t="s">
         <v>19</v>
@@ -34382,7 +34379,7 @@
         <v>85</v>
       </c>
       <c r="G587" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I587" s="4" t="s">
         <v>22</v>
@@ -34412,16 +34409,16 @@
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
+        <v>923</v>
+      </c>
+      <c r="B588" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="B588" s="4" t="s">
-        <v>925</v>
-      </c>
       <c r="C588" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E588" s="4" t="s">
         <v>19</v>
@@ -34430,7 +34427,7 @@
         <v>85</v>
       </c>
       <c r="G588" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I588" s="4" t="s">
         <v>22</v>
@@ -34460,16 +34457,16 @@
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
+        <v>925</v>
+      </c>
+      <c r="B589" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="B589" s="4" t="s">
-        <v>927</v>
-      </c>
       <c r="C589" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E589" s="4" t="s">
         <v>19</v>
@@ -34478,7 +34475,7 @@
         <v>85</v>
       </c>
       <c r="G589" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I589" s="4" t="s">
         <v>22</v>
@@ -34508,16 +34505,16 @@
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
+        <v>927</v>
+      </c>
+      <c r="B590" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="B590" s="4" t="s">
-        <v>929</v>
-      </c>
       <c r="C590" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E590" s="4" t="s">
         <v>19</v>
@@ -34526,7 +34523,7 @@
         <v>85</v>
       </c>
       <c r="G590" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I590" s="4" t="s">
         <v>22</v>
@@ -34556,16 +34553,16 @@
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
+        <v>929</v>
+      </c>
+      <c r="B591" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="B591" s="4" t="s">
-        <v>931</v>
-      </c>
       <c r="C591" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E591" s="4" t="s">
         <v>19</v>
@@ -34574,7 +34571,7 @@
         <v>85</v>
       </c>
       <c r="G591" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I591" s="4" t="s">
         <v>22</v>
@@ -34604,16 +34601,16 @@
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
+        <v>931</v>
+      </c>
+      <c r="B592" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="B592" s="4" t="s">
-        <v>933</v>
-      </c>
       <c r="C592" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E592" s="4" t="s">
         <v>19</v>
@@ -34622,7 +34619,7 @@
         <v>202</v>
       </c>
       <c r="G592" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I592" s="4" t="s">
         <v>22</v>
@@ -34652,16 +34649,16 @@
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
+        <v>933</v>
+      </c>
+      <c r="B593" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="B593" s="4" t="s">
-        <v>935</v>
-      </c>
       <c r="C593" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E593" s="4" t="s">
         <v>19</v>
@@ -34670,7 +34667,7 @@
         <v>202</v>
       </c>
       <c r="G593" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I593" s="4" t="s">
         <v>22</v>
@@ -34700,16 +34697,16 @@
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
+        <v>935</v>
+      </c>
+      <c r="B594" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="B594" s="4" t="s">
-        <v>937</v>
-      </c>
       <c r="C594" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E594" s="4" t="s">
         <v>19</v>
@@ -34718,7 +34715,7 @@
         <v>202</v>
       </c>
       <c r="G594" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I594" s="4" t="s">
         <v>22</v>
@@ -34748,16 +34745,16 @@
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
+        <v>937</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="B595" s="4" t="s">
-        <v>939</v>
-      </c>
       <c r="C595" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E595" s="4" t="s">
         <v>19</v>
@@ -34766,7 +34763,7 @@
         <v>202</v>
       </c>
       <c r="G595" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I595" s="4" t="s">
         <v>22</v>
@@ -34799,16 +34796,16 @@
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
+        <v>939</v>
+      </c>
+      <c r="B596" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="B596" s="4" t="s">
-        <v>941</v>
-      </c>
       <c r="C596" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E596" s="4" t="s">
         <v>19</v>
@@ -34817,7 +34814,7 @@
         <v>202</v>
       </c>
       <c r="G596" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I596" s="4" t="s">
         <v>22</v>
@@ -34847,16 +34844,16 @@
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
+        <v>941</v>
+      </c>
+      <c r="B597" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="B597" s="4" t="s">
-        <v>943</v>
-      </c>
       <c r="C597" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E597" s="4" t="s">
         <v>19</v>
@@ -34865,7 +34862,7 @@
         <v>202</v>
       </c>
       <c r="G597" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I597" s="4" t="s">
         <v>22</v>
@@ -34895,16 +34892,16 @@
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
+        <v>943</v>
+      </c>
+      <c r="B598" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="B598" s="4" t="s">
-        <v>945</v>
-      </c>
       <c r="C598" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E598" s="4" t="s">
         <v>19</v>
@@ -34913,7 +34910,7 @@
         <v>202</v>
       </c>
       <c r="G598" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I598" s="4" t="s">
         <v>22</v>
@@ -34943,16 +34940,16 @@
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
+        <v>945</v>
+      </c>
+      <c r="B599" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="B599" s="4" t="s">
-        <v>947</v>
-      </c>
       <c r="C599" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E599" s="4" t="s">
         <v>19</v>
@@ -34961,7 +34958,7 @@
         <v>202</v>
       </c>
       <c r="G599" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>22</v>
@@ -34991,16 +34988,16 @@
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
+        <v>947</v>
+      </c>
+      <c r="B600" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="B600" s="4" t="s">
-        <v>949</v>
-      </c>
       <c r="C600" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E600" s="4" t="s">
         <v>19</v>
@@ -35009,7 +35006,7 @@
         <v>202</v>
       </c>
       <c r="G600" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>22</v>
@@ -35039,16 +35036,16 @@
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
+        <v>949</v>
+      </c>
+      <c r="B601" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="B601" s="4" t="s">
-        <v>951</v>
-      </c>
       <c r="C601" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E601" s="4" t="s">
         <v>19</v>
@@ -35057,7 +35054,7 @@
         <v>202</v>
       </c>
       <c r="G601" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>22</v>
@@ -35087,16 +35084,16 @@
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
+        <v>951</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B602" s="4" t="s">
-        <v>953</v>
-      </c>
       <c r="C602" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E602" s="4" t="s">
         <v>19</v>
@@ -35105,7 +35102,7 @@
         <v>202</v>
       </c>
       <c r="G602" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I602" s="4" t="s">
         <v>22</v>
@@ -35135,16 +35132,16 @@
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
+        <v>953</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="B603" s="4" t="s">
-        <v>955</v>
-      </c>
       <c r="C603" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E603" s="4" t="s">
         <v>19</v>
@@ -35153,7 +35150,7 @@
         <v>202</v>
       </c>
       <c r="G603" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I603" s="4" t="s">
         <v>22</v>
@@ -35183,16 +35180,16 @@
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
+        <v>955</v>
+      </c>
+      <c r="B604" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="B604" s="4" t="s">
-        <v>957</v>
-      </c>
       <c r="C604" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E604" s="4" t="s">
         <v>19</v>
@@ -35201,7 +35198,7 @@
         <v>202</v>
       </c>
       <c r="G604" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I604" s="4" t="s">
         <v>22</v>
@@ -35231,16 +35228,16 @@
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
+        <v>957</v>
+      </c>
+      <c r="B605" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B605" s="4" t="s">
-        <v>959</v>
-      </c>
       <c r="C605" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E605" s="4" t="s">
         <v>19</v>
@@ -35249,7 +35246,7 @@
         <v>202</v>
       </c>
       <c r="G605" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I605" s="4" t="s">
         <v>22</v>
@@ -35279,16 +35276,16 @@
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
+        <v>959</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="B606" s="4" t="s">
-        <v>961</v>
-      </c>
       <c r="C606" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E606" s="4" t="s">
         <v>19</v>
@@ -35297,7 +35294,7 @@
         <v>202</v>
       </c>
       <c r="G606" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I606" s="4" t="s">
         <v>22</v>
@@ -35327,16 +35324,16 @@
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
+        <v>961</v>
+      </c>
+      <c r="B607" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="B607" s="4" t="s">
-        <v>963</v>
-      </c>
       <c r="C607" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E607" s="4" t="s">
         <v>19</v>
@@ -35357,7 +35354,7 @@
         <v>200</v>
       </c>
       <c r="L607" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M607" s="7">
         <v>74</v>
@@ -35375,16 +35372,16 @@
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
+        <v>964</v>
+      </c>
+      <c r="B608" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B608" s="4" t="s">
-        <v>966</v>
-      </c>
       <c r="C608" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E608" s="4" t="s">
         <v>19</v>
@@ -35405,7 +35402,7 @@
         <v>200</v>
       </c>
       <c r="L608" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M608" s="7">
         <v>70</v>
@@ -35423,16 +35420,16 @@
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
+        <v>966</v>
+      </c>
+      <c r="B609" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B609" s="4" t="s">
-        <v>968</v>
-      </c>
       <c r="C609" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E609" s="4" t="s">
         <v>19</v>
@@ -35453,7 +35450,7 @@
         <v>200</v>
       </c>
       <c r="L609" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M609" s="7">
         <v>74</v>
@@ -35471,16 +35468,16 @@
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
+        <v>968</v>
+      </c>
+      <c r="B610" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B610" s="4" t="s">
-        <v>970</v>
-      </c>
       <c r="C610" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E610" s="4" t="s">
         <v>19</v>
@@ -35501,7 +35498,7 @@
         <v>200</v>
       </c>
       <c r="L610" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M610" s="7">
         <v>74</v>
@@ -35519,16 +35516,16 @@
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
+        <v>970</v>
+      </c>
+      <c r="B611" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B611" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="C611" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E611" s="4" t="s">
         <v>19</v>
@@ -35549,7 +35546,7 @@
         <v>200</v>
       </c>
       <c r="L611" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M611" s="7">
         <v>74</v>
@@ -35567,16 +35564,16 @@
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
+        <v>972</v>
+      </c>
+      <c r="B612" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B612" s="4" t="s">
-        <v>974</v>
-      </c>
       <c r="C612" s="4" t="s">
-        <v>841</v>
+        <v>1319</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E612" s="4" t="s">
         <v>19</v>
@@ -35597,7 +35594,7 @@
         <v>200</v>
       </c>
       <c r="L612" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M612" s="7">
         <v>74</v>

--- a/data/wood.xlsx
+++ b/data/wood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willjackson/Library/CloudStorage/GoogleDrive-wj@wovenandwoods.com/Shared drives/Office/Product Data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99D1D4-E352-114A-A329-C039F23EAAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2508D525-E32E-DC48-AE74-5CB9D9707749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="1327">
   <si>
     <t>SKU</t>
   </si>
@@ -2558,75 +2558,12 @@
     <t>WO28546VFX</t>
   </si>
   <si>
-    <t>WO76304BES</t>
-  </si>
-  <si>
-    <t>WO27971BES</t>
-  </si>
-  <si>
-    <t>WO22834BES</t>
-  </si>
-  <si>
-    <t>WO77525BES</t>
-  </si>
-  <si>
-    <t>WO87053BES</t>
-  </si>
-  <si>
-    <t>WO46884BES</t>
-  </si>
-  <si>
-    <t>WO95786BES</t>
-  </si>
-  <si>
-    <t>WO62246BES</t>
-  </si>
-  <si>
-    <t>WO70899BES</t>
-  </si>
-  <si>
-    <t>WO83520BES</t>
-  </si>
-  <si>
-    <t>WO55607BES</t>
-  </si>
-  <si>
-    <t>WO77963BES</t>
-  </si>
-  <si>
-    <t>WO54192BES</t>
-  </si>
-  <si>
-    <t>WO83994BES</t>
-  </si>
-  <si>
-    <t>WO15562BES</t>
-  </si>
-  <si>
-    <t>WO85318BES</t>
-  </si>
-  <si>
-    <t>WO30388BES</t>
-  </si>
-  <si>
-    <t>WO48311BES</t>
-  </si>
-  <si>
-    <t>WO54522BES</t>
-  </si>
-  <si>
     <t>Cogley Carob (Engineered)</t>
   </si>
   <si>
-    <t>WO23516BES</t>
-  </si>
-  <si>
     <t>Mealt Loch Mocha (Engineered)</t>
   </si>
   <si>
-    <t>WO26206BES</t>
-  </si>
-  <si>
     <t>Sardinia Villamar (180)</t>
   </si>
   <si>
@@ -2636,327 +2573,168 @@
     <t>600 – 2400</t>
   </si>
   <si>
-    <t>WO67432BES</t>
-  </si>
-  <si>
     <t>Sardinia Soelli (180)</t>
   </si>
   <si>
-    <t>WO26164BES</t>
-  </si>
-  <si>
     <t>Sardinia Guspini (180)</t>
   </si>
   <si>
-    <t>WO57957BES</t>
-  </si>
-  <si>
     <t>Sardinia Posada (180)</t>
   </si>
   <si>
-    <t>WO60019BES</t>
-  </si>
-  <si>
     <t>Sardinia Pula (180)</t>
   </si>
   <si>
-    <t>WO17541BES</t>
-  </si>
-  <si>
     <t>Sardinia Neoneli (180)</t>
   </si>
   <si>
-    <t>WO17192BES</t>
-  </si>
-  <si>
     <t>Sardinia Pietra (180)</t>
   </si>
   <si>
-    <t>WO24030BES</t>
-  </si>
-  <si>
     <t>Sardinia Florinas (180)</t>
   </si>
   <si>
-    <t>WO48666BES</t>
-  </si>
-  <si>
     <t>Sardinia Loceri (180)</t>
   </si>
   <si>
-    <t>WO89232BES</t>
-  </si>
-  <si>
     <t>Sardinia Villamar (Herringbone)</t>
   </si>
   <si>
-    <t>WO94970BES</t>
-  </si>
-  <si>
     <t>Sardinia Soelli (Herringbone)</t>
   </si>
   <si>
-    <t>WO34975BES</t>
-  </si>
-  <si>
     <t>Sardinia Guspini (Herringbone)</t>
   </si>
   <si>
-    <t>WO46369BES</t>
-  </si>
-  <si>
     <t>Sardinia Posada (Herringbone)</t>
   </si>
   <si>
-    <t>WO74227BES</t>
-  </si>
-  <si>
     <t>Sardinia Pula (Herringbone)</t>
   </si>
   <si>
-    <t>WO63918BES</t>
-  </si>
-  <si>
     <t>Sardinia Neoneli (Herringbone)</t>
   </si>
   <si>
-    <t>WO62371BES</t>
-  </si>
-  <si>
     <t>Sardinia Pietra (Herringbone)</t>
   </si>
   <si>
-    <t>WO74194BES</t>
-  </si>
-  <si>
     <t>Sardinia Florinas (Herringbone)</t>
   </si>
   <si>
-    <t>WO68765BES</t>
-  </si>
-  <si>
     <t>Sardinia Loceri (Herringbone)</t>
   </si>
   <si>
-    <t>WO87225BES</t>
-  </si>
-  <si>
     <t>Richmond Clarence (Herringbone) Rustic</t>
   </si>
   <si>
     <t>10/4</t>
   </si>
   <si>
-    <t>WO85789BES</t>
-  </si>
-  <si>
     <t>Richmond Wick (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO42665BES</t>
-  </si>
-  <si>
     <t>Richmond Ormeley (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO25476BES</t>
-  </si>
-  <si>
     <t>Richmond Pembroke (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO70467BES</t>
-  </si>
-  <si>
     <t>Richmond Sandycombe (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO98828BES</t>
-  </si>
-  <si>
     <t>Richmond Syon (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO61570BES</t>
-  </si>
-  <si>
     <t>Richmond Temperate (Herringbone) Rustic</t>
   </si>
   <si>
-    <t>WO38758BES</t>
-  </si>
-  <si>
     <t>Richmond Clarence (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO46511BES</t>
-  </si>
-  <si>
     <t>Richmond Wick (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO96711BES</t>
-  </si>
-  <si>
     <t>Richmond Ormeley (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO36268BES</t>
-  </si>
-  <si>
     <t>Richmond Pembroke (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO49101BES</t>
-  </si>
-  <si>
     <t>Richmond Sandycombe (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO68884BES</t>
-  </si>
-  <si>
     <t>Richmond Syon (Herringbone) Prime</t>
   </si>
   <si>
-    <t>WO66861BES</t>
-  </si>
-  <si>
     <t>Richmond Temperate (Herringbone, Prime)</t>
   </si>
   <si>
-    <t>WO24553BES</t>
-  </si>
-  <si>
     <t>Richmond Garrick (Herringbone, Prime)</t>
   </si>
   <si>
-    <t>WO43923BES</t>
-  </si>
-  <si>
     <t>Richmond Clarence (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO91342BES</t>
-  </si>
-  <si>
     <t>Richmond Wick (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO25174BES</t>
-  </si>
-  <si>
     <t>Richmond Ormeley (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO38994BES</t>
-  </si>
-  <si>
     <t>Richmond Pembroke (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO38448BES</t>
-  </si>
-  <si>
     <t>Richmond Sandycombe (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO73643BES</t>
-  </si>
-  <si>
     <t>Richmond Syon (Chevron) Rustic</t>
   </si>
   <si>
-    <t>WO20267BES</t>
-  </si>
-  <si>
     <t>Richmond Temperate (Chevron, Rustic)</t>
   </si>
   <si>
-    <t>WO48837BES</t>
-  </si>
-  <si>
     <t>Richmond Clarence (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO73387BES</t>
-  </si>
-  <si>
     <t>Richmond Wick (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO62962BES</t>
-  </si>
-  <si>
     <t>Richmond Ormeley (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO32632BES</t>
-  </si>
-  <si>
     <t>Richmond Pembroke (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO40860BES</t>
-  </si>
-  <si>
     <t>Richmond Sandycombe (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO77719BES</t>
-  </si>
-  <si>
     <t>Richmond Syon (Chevron) Prime</t>
   </si>
   <si>
-    <t>WO57081BES</t>
-  </si>
-  <si>
     <t>Richmond Temperate (Chevron, Prime)</t>
   </si>
   <si>
-    <t>WO91831BES</t>
-  </si>
-  <si>
     <t>Richmond Garrick (Chevron, Prime)</t>
   </si>
   <si>
-    <t>WO51087BES</t>
-  </si>
-  <si>
     <t>Century Matt</t>
   </si>
   <si>
     <t>500 – 2200</t>
   </si>
   <si>
-    <t>WO25865BES</t>
-  </si>
-  <si>
     <t>Century Natural</t>
   </si>
   <si>
-    <t>WO59407BES</t>
-  </si>
-  <si>
     <t>Century Light Smoked</t>
   </si>
   <si>
-    <t>WO33978BES</t>
-  </si>
-  <si>
     <t>Century Medium Smoked</t>
   </si>
   <si>
-    <t>WO12340BES</t>
-  </si>
-  <si>
     <t>Century Dark Smoked</t>
   </si>
   <si>
-    <t>WO57856BES</t>
-  </si>
-  <si>
     <t>Century Black</t>
   </si>
   <si>
@@ -4017,6 +3795,231 @@
   </si>
   <si>
     <t>Check with WFA</t>
+  </si>
+  <si>
+    <t>WO76304WOV</t>
+  </si>
+  <si>
+    <t>WO27971WOV</t>
+  </si>
+  <si>
+    <t>WO22834WOV</t>
+  </si>
+  <si>
+    <t>WO77525WOV</t>
+  </si>
+  <si>
+    <t>WO87053WOV</t>
+  </si>
+  <si>
+    <t>WO46884WOV</t>
+  </si>
+  <si>
+    <t>WO95786WOV</t>
+  </si>
+  <si>
+    <t>WO62246WOV</t>
+  </si>
+  <si>
+    <t>WO70899WOV</t>
+  </si>
+  <si>
+    <t>WO83520WOV</t>
+  </si>
+  <si>
+    <t>WO55607WOV</t>
+  </si>
+  <si>
+    <t>WO77963WOV</t>
+  </si>
+  <si>
+    <t>WO54192WOV</t>
+  </si>
+  <si>
+    <t>WO83994WOV</t>
+  </si>
+  <si>
+    <t>WO15562WOV</t>
+  </si>
+  <si>
+    <t>WO85318WOV</t>
+  </si>
+  <si>
+    <t>WO30388WOV</t>
+  </si>
+  <si>
+    <t>WO48311WOV</t>
+  </si>
+  <si>
+    <t>WO54522WOV</t>
+  </si>
+  <si>
+    <t>WO23516WOV</t>
+  </si>
+  <si>
+    <t>WO26206WOV</t>
+  </si>
+  <si>
+    <t>WO67432WOV</t>
+  </si>
+  <si>
+    <t>WO26164WOV</t>
+  </si>
+  <si>
+    <t>WO57957WOV</t>
+  </si>
+  <si>
+    <t>WO60019WOV</t>
+  </si>
+  <si>
+    <t>WO17541WOV</t>
+  </si>
+  <si>
+    <t>WO17192WOV</t>
+  </si>
+  <si>
+    <t>WO24030WOV</t>
+  </si>
+  <si>
+    <t>WO48666WOV</t>
+  </si>
+  <si>
+    <t>WO89232WOV</t>
+  </si>
+  <si>
+    <t>WO94970WOV</t>
+  </si>
+  <si>
+    <t>WO34975WOV</t>
+  </si>
+  <si>
+    <t>WO46369WOV</t>
+  </si>
+  <si>
+    <t>WO74227WOV</t>
+  </si>
+  <si>
+    <t>WO63918WOV</t>
+  </si>
+  <si>
+    <t>WO62371WOV</t>
+  </si>
+  <si>
+    <t>WO74194WOV</t>
+  </si>
+  <si>
+    <t>WO68765WOV</t>
+  </si>
+  <si>
+    <t>WO87225WOV</t>
+  </si>
+  <si>
+    <t>WO85789WOV</t>
+  </si>
+  <si>
+    <t>WO42665WOV</t>
+  </si>
+  <si>
+    <t>WO25476WOV</t>
+  </si>
+  <si>
+    <t>WO70467WOV</t>
+  </si>
+  <si>
+    <t>WO98828WOV</t>
+  </si>
+  <si>
+    <t>WO61570WOV</t>
+  </si>
+  <si>
+    <t>WO38758WOV</t>
+  </si>
+  <si>
+    <t>WO46511WOV</t>
+  </si>
+  <si>
+    <t>WO96711WOV</t>
+  </si>
+  <si>
+    <t>WO36268WOV</t>
+  </si>
+  <si>
+    <t>WO49101WOV</t>
+  </si>
+  <si>
+    <t>WO68884WOV</t>
+  </si>
+  <si>
+    <t>WO66861WOV</t>
+  </si>
+  <si>
+    <t>WO24553WOV</t>
+  </si>
+  <si>
+    <t>WO43923WOV</t>
+  </si>
+  <si>
+    <t>WO91342WOV</t>
+  </si>
+  <si>
+    <t>WO25174WOV</t>
+  </si>
+  <si>
+    <t>WO38994WOV</t>
+  </si>
+  <si>
+    <t>WO38448WOV</t>
+  </si>
+  <si>
+    <t>WO73643WOV</t>
+  </si>
+  <si>
+    <t>WO20267WOV</t>
+  </si>
+  <si>
+    <t>WO48837WOV</t>
+  </si>
+  <si>
+    <t>WO73387WOV</t>
+  </si>
+  <si>
+    <t>WO62962WOV</t>
+  </si>
+  <si>
+    <t>WO32632WOV</t>
+  </si>
+  <si>
+    <t>WO40860WOV</t>
+  </si>
+  <si>
+    <t>WO77719WOV</t>
+  </si>
+  <si>
+    <t>WO57081WOV</t>
+  </si>
+  <si>
+    <t>WO91831WOV</t>
+  </si>
+  <si>
+    <t>WO51087WOV</t>
+  </si>
+  <si>
+    <t>WO25865WOV</t>
+  </si>
+  <si>
+    <t>WO59407WOV</t>
+  </si>
+  <si>
+    <t>WO33978WOV</t>
+  </si>
+  <si>
+    <t>WO12340WOV</t>
+  </si>
+  <si>
+    <t>WO57856WOV</t>
+  </si>
+  <si>
+    <t>Woven &amp; Woods</t>
   </si>
 </sst>
 </file>
@@ -4322,9 +4325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G544" sqref="G544"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4354,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1316</v>
+        <v>1242</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -4396,10 +4399,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>1314</v>
+        <v>1240</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>1315</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -5457,7 +5460,7 @@
         <v>59</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="0"/>
@@ -5512,7 +5515,7 @@
         <v>59</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="0"/>
@@ -5567,7 +5570,7 @@
         <v>59</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="0"/>
@@ -5622,7 +5625,7 @@
         <v>59</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="0"/>
@@ -5677,7 +5680,7 @@
         <v>59</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="0"/>
@@ -5732,7 +5735,7 @@
         <v>59</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1321</v>
+        <v>1247</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="0"/>
@@ -15380,7 +15383,7 @@
         <v>460</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>19</v>
@@ -15430,7 +15433,7 @@
         <v>460</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>19</v>
@@ -15483,7 +15486,7 @@
         <v>460</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>19</v>
@@ -15533,7 +15536,7 @@
         <v>460</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>19</v>
@@ -15586,7 +15589,7 @@
         <v>460</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>19</v>
@@ -15636,7 +15639,7 @@
         <v>460</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>19</v>
@@ -15689,7 +15692,7 @@
         <v>460</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>19</v>
@@ -15739,7 +15742,7 @@
         <v>460</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>19</v>
@@ -15792,7 +15795,7 @@
         <v>460</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>19</v>
@@ -15842,7 +15845,7 @@
         <v>460</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>19</v>
@@ -15895,7 +15898,7 @@
         <v>460</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>19</v>
@@ -15945,7 +15948,7 @@
         <v>460</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>19</v>
@@ -15998,7 +16001,7 @@
         <v>460</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>19</v>
@@ -16048,7 +16051,7 @@
         <v>460</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>19</v>
@@ -16101,7 +16104,7 @@
         <v>460</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>19</v>
@@ -16151,7 +16154,7 @@
         <v>460</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>19</v>
@@ -16204,7 +16207,7 @@
         <v>460</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>19</v>
@@ -16254,7 +16257,7 @@
         <v>460</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>19</v>
@@ -16307,7 +16310,7 @@
         <v>460</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>19</v>
@@ -16360,7 +16363,7 @@
         <v>460</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>19</v>
@@ -16410,7 +16413,7 @@
         <v>460</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>19</v>
@@ -16460,7 +16463,7 @@
         <v>460</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>19</v>
@@ -16513,7 +16516,7 @@
         <v>460</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>19</v>
@@ -16563,7 +16566,7 @@
         <v>460</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>19</v>
@@ -16613,7 +16616,7 @@
         <v>460</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>19</v>
@@ -16663,7 +16666,7 @@
         <v>460</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>19</v>
@@ -16713,7 +16716,7 @@
         <v>460</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>19</v>
@@ -16763,7 +16766,7 @@
         <v>460</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1317</v>
+        <v>1243</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>19</v>
@@ -19677,7 +19680,7 @@
         <v>14</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>1319</v>
+        <v>1245</v>
       </c>
       <c r="I278" s="7" t="s">
         <v>22</v>
@@ -23405,7 +23408,7 @@
         <v>770</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1166</v>
+        <v>1092</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>760</v>
@@ -23460,7 +23463,7 @@
         <v>759</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1157</v>
+        <v>1083</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>760</v>
@@ -23515,7 +23518,7 @@
         <v>766</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1162</v>
+        <v>1088</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>760</v>
@@ -23570,7 +23573,7 @@
         <v>767</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1163</v>
+        <v>1089</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>760</v>
@@ -23625,7 +23628,7 @@
         <v>764</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>760</v>
@@ -23680,7 +23683,7 @@
         <v>768</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1164</v>
+        <v>1090</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>760</v>
@@ -23735,7 +23738,7 @@
         <v>765</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1161</v>
+        <v>1087</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>760</v>
@@ -23790,7 +23793,7 @@
         <v>769</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1165</v>
+        <v>1091</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>760</v>
@@ -23845,7 +23848,7 @@
         <v>763</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>760</v>
@@ -23900,7 +23903,7 @@
         <v>762</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1158</v>
+        <v>1084</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>760</v>
@@ -23952,10 +23955,10 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
-        <v>1256</v>
+        <v>1182</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1243</v>
+        <v>1169</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>760</v>
@@ -24007,10 +24010,10 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
-        <v>1257</v>
+        <v>1183</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1244</v>
+        <v>1170</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>760</v>
@@ -24062,10 +24065,10 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
-        <v>1258</v>
+        <v>1184</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1240</v>
+        <v>1166</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>760</v>
@@ -24117,10 +24120,10 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
-        <v>1259</v>
+        <v>1185</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1246</v>
+        <v>1172</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>760</v>
@@ -24172,10 +24175,10 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
-        <v>1260</v>
+        <v>1186</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1242</v>
+        <v>1168</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>760</v>
@@ -24227,10 +24230,10 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
-        <v>1261</v>
+        <v>1187</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1239</v>
+        <v>1165</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>760</v>
@@ -24282,10 +24285,10 @@
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
-        <v>1262</v>
+        <v>1188</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1241</v>
+        <v>1167</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>760</v>
@@ -24337,10 +24340,10 @@
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
-        <v>1263</v>
+        <v>1189</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1245</v>
+        <v>1171</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>760</v>
@@ -24392,10 +24395,10 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
-        <v>1264</v>
+        <v>1190</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1292</v>
+        <v>1218</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>760</v>
@@ -24447,10 +24450,10 @@
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
-        <v>1265</v>
+        <v>1191</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1247</v>
+        <v>1173</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>760</v>
@@ -24502,10 +24505,10 @@
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
-        <v>1266</v>
+        <v>1192</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1234</v>
+        <v>1160</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>760</v>
@@ -24535,7 +24538,7 @@
         <v>180</v>
       </c>
       <c r="L365" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M365" s="5">
         <v>74.55</v>
@@ -24557,10 +24560,10 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
-        <v>1267</v>
+        <v>1193</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1235</v>
+        <v>1161</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>760</v>
@@ -24590,7 +24593,7 @@
         <v>180</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M366" s="5">
         <v>74.55</v>
@@ -24612,10 +24615,10 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
-        <v>1268</v>
+        <v>1194</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1231</v>
+        <v>1157</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>760</v>
@@ -24645,7 +24648,7 @@
         <v>180</v>
       </c>
       <c r="L367" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M367" s="5">
         <v>74.55</v>
@@ -24667,10 +24670,10 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
-        <v>1269</v>
+        <v>1195</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1237</v>
+        <v>1163</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>760</v>
@@ -24700,7 +24703,7 @@
         <v>180</v>
       </c>
       <c r="L368" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M368" s="5">
         <v>74.55</v>
@@ -24722,10 +24725,10 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
-        <v>1270</v>
+        <v>1196</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1233</v>
+        <v>1159</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>760</v>
@@ -24755,7 +24758,7 @@
         <v>180</v>
       </c>
       <c r="L369" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M369" s="5">
         <v>74.55</v>
@@ -24777,10 +24780,10 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
-        <v>1271</v>
+        <v>1197</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1230</v>
+        <v>1156</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>760</v>
@@ -24810,7 +24813,7 @@
         <v>180</v>
       </c>
       <c r="L370" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M370" s="5">
         <v>74.55</v>
@@ -24832,10 +24835,10 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
-        <v>1272</v>
+        <v>1198</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1232</v>
+        <v>1158</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>760</v>
@@ -24865,7 +24868,7 @@
         <v>180</v>
       </c>
       <c r="L371" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M371" s="5">
         <v>74.55</v>
@@ -24887,10 +24890,10 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
-        <v>1273</v>
+        <v>1199</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1236</v>
+        <v>1162</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>760</v>
@@ -24920,7 +24923,7 @@
         <v>180</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M372" s="5">
         <v>74.55</v>
@@ -24942,10 +24945,10 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
-        <v>1274</v>
+        <v>1200</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1293</v>
+        <v>1219</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>760</v>
@@ -24975,7 +24978,7 @@
         <v>180</v>
       </c>
       <c r="L373" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M373" s="5">
         <v>87.05</v>
@@ -24997,10 +25000,10 @@
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
-        <v>1275</v>
+        <v>1201</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1238</v>
+        <v>1164</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>760</v>
@@ -25030,7 +25033,7 @@
         <v>180</v>
       </c>
       <c r="L374" s="4" t="s">
-        <v>1291</v>
+        <v>1217</v>
       </c>
       <c r="M374" s="5">
         <v>87.05</v>
@@ -25055,7 +25058,7 @@
         <v>836</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1228</v>
+        <v>1154</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>760</v>
@@ -25110,7 +25113,7 @@
         <v>832</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1224</v>
+        <v>1150</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>760</v>
@@ -25165,7 +25168,7 @@
         <v>830</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1222</v>
+        <v>1148</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>760</v>
@@ -25220,7 +25223,7 @@
         <v>834</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1226</v>
+        <v>1152</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>760</v>
@@ -25275,7 +25278,7 @@
         <v>835</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1227</v>
+        <v>1153</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>760</v>
@@ -25330,7 +25333,7 @@
         <v>838</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1229</v>
+        <v>1155</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>760</v>
@@ -25385,7 +25388,7 @@
         <v>833</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1225</v>
+        <v>1151</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>760</v>
@@ -25440,7 +25443,7 @@
         <v>831</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1223</v>
+        <v>1149</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>760</v>
@@ -25495,7 +25498,7 @@
         <v>789</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1185</v>
+        <v>1111</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>760</v>
@@ -25550,7 +25553,7 @@
         <v>785</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1181</v>
+        <v>1107</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>760</v>
@@ -25605,7 +25608,7 @@
         <v>781</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1177</v>
+        <v>1103</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>760</v>
@@ -25660,7 +25663,7 @@
         <v>784</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1180</v>
+        <v>1106</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>760</v>
@@ -25715,7 +25718,7 @@
         <v>782</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1178</v>
+        <v>1104</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>760</v>
@@ -25770,7 +25773,7 @@
         <v>788</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1184</v>
+        <v>1110</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>760</v>
@@ -25825,7 +25828,7 @@
         <v>783</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1179</v>
+        <v>1105</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>760</v>
@@ -25880,7 +25883,7 @@
         <v>786</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1182</v>
+        <v>1108</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>760</v>
@@ -25935,7 +25938,7 @@
         <v>787</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1183</v>
+        <v>1109</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>760</v>
@@ -25990,7 +25993,7 @@
         <v>790</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1186</v>
+        <v>1112</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>760</v>
@@ -26045,7 +26048,7 @@
         <v>779</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1175</v>
+        <v>1101</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>760</v>
@@ -26100,7 +26103,7 @@
         <v>775</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1171</v>
+        <v>1097</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>760</v>
@@ -26155,7 +26158,7 @@
         <v>771</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1167</v>
+        <v>1093</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>760</v>
@@ -26210,7 +26213,7 @@
         <v>774</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1170</v>
+        <v>1096</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>760</v>
@@ -26265,7 +26268,7 @@
         <v>772</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1168</v>
+        <v>1094</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>760</v>
@@ -26320,7 +26323,7 @@
         <v>778</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1174</v>
+        <v>1100</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>760</v>
@@ -26375,7 +26378,7 @@
         <v>773</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1169</v>
+        <v>1095</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>760</v>
@@ -26430,7 +26433,7 @@
         <v>776</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1172</v>
+        <v>1098</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>760</v>
@@ -26485,7 +26488,7 @@
         <v>777</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1173</v>
+        <v>1099</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>760</v>
@@ -26540,7 +26543,7 @@
         <v>780</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1176</v>
+        <v>1102</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>760</v>
@@ -26595,7 +26598,7 @@
         <v>801</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1197</v>
+        <v>1123</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>760</v>
@@ -26650,7 +26653,7 @@
         <v>809</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1205</v>
+        <v>1131</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>760</v>
@@ -26705,7 +26708,7 @@
         <v>810</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1206</v>
+        <v>1132</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>760</v>
@@ -26760,7 +26763,7 @@
         <v>808</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1204</v>
+        <v>1130</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>760</v>
@@ -26815,7 +26818,7 @@
         <v>803</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1199</v>
+        <v>1125</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>760</v>
@@ -26870,7 +26873,7 @@
         <v>802</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1198</v>
+        <v>1124</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>760</v>
@@ -26925,7 +26928,7 @@
         <v>807</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1203</v>
+        <v>1129</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>760</v>
@@ -26980,7 +26983,7 @@
         <v>805</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1201</v>
+        <v>1127</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>760</v>
@@ -27035,7 +27038,7 @@
         <v>806</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1202</v>
+        <v>1128</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>760</v>
@@ -27090,7 +27093,7 @@
         <v>804</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1200</v>
+        <v>1126</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>760</v>
@@ -27145,7 +27148,7 @@
         <v>792</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1188</v>
+        <v>1114</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>760</v>
@@ -27200,7 +27203,7 @@
         <v>795</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1191</v>
+        <v>1117</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>760</v>
@@ -27255,7 +27258,7 @@
         <v>800</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1196</v>
+        <v>1122</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>760</v>
@@ -27310,7 +27313,7 @@
         <v>796</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1192</v>
+        <v>1118</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>760</v>
@@ -27365,7 +27368,7 @@
         <v>794</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1190</v>
+        <v>1116</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>760</v>
@@ -27420,7 +27423,7 @@
         <v>797</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1193</v>
+        <v>1119</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>760</v>
@@ -27475,7 +27478,7 @@
         <v>791</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1187</v>
+        <v>1113</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>760</v>
@@ -27530,7 +27533,7 @@
         <v>799</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1195</v>
+        <v>1121</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>760</v>
@@ -27582,16 +27585,16 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
-        <v>973</v>
+        <v>899</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>974</v>
+        <v>900</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E421" s="4" t="s">
         <v>19</v>
@@ -27600,7 +27603,7 @@
         <v>20</v>
       </c>
       <c r="G421" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H421" s="4">
         <v>1.98</v>
@@ -27637,16 +27640,16 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A422" s="4" t="s">
-        <v>977</v>
+        <v>903</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>978</v>
+        <v>904</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>19</v>
@@ -27655,7 +27658,7 @@
         <v>20</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H422" s="4">
         <v>1.98</v>
@@ -27692,16 +27695,16 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A423" s="4" t="s">
-        <v>979</v>
+        <v>905</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>980</v>
+        <v>906</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>19</v>
@@ -27710,7 +27713,7 @@
         <v>20</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H423" s="4">
         <v>1.98</v>
@@ -27747,16 +27750,16 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A424" s="4" t="s">
-        <v>981</v>
+        <v>907</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>982</v>
+        <v>908</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>19</v>
@@ -27765,7 +27768,7 @@
         <v>20</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H424" s="4">
         <v>1.98</v>
@@ -27802,16 +27805,16 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A425" s="4" t="s">
-        <v>983</v>
+        <v>909</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>984</v>
+        <v>910</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>19</v>
@@ -27820,7 +27823,7 @@
         <v>20</v>
       </c>
       <c r="G425" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H425" s="4">
         <v>1.98</v>
@@ -27857,16 +27860,16 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A426" s="4" t="s">
-        <v>985</v>
+        <v>911</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>986</v>
+        <v>912</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E426" s="4" t="s">
         <v>19</v>
@@ -27875,7 +27878,7 @@
         <v>20</v>
       </c>
       <c r="G426" s="4" t="s">
-        <v>976</v>
+        <v>902</v>
       </c>
       <c r="H426" s="4">
         <v>1.98</v>
@@ -27912,16 +27915,16 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A427" s="4" t="s">
-        <v>987</v>
+        <v>913</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>988</v>
+        <v>914</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>19</v>
@@ -27930,7 +27933,7 @@
         <v>20</v>
       </c>
       <c r="G427" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H427" s="4">
         <v>2.8879999999999999</v>
@@ -27964,16 +27967,16 @@
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A428" s="4" t="s">
-        <v>990</v>
+        <v>916</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>991</v>
+        <v>917</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E428" s="4" t="s">
         <v>19</v>
@@ -27982,7 +27985,7 @@
         <v>20</v>
       </c>
       <c r="G428" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H428" s="4">
         <v>2.8879999999999999</v>
@@ -28019,16 +28022,16 @@
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A429" s="4" t="s">
-        <v>992</v>
+        <v>918</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>993</v>
+        <v>919</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E429" s="4" t="s">
         <v>19</v>
@@ -28037,7 +28040,7 @@
         <v>20</v>
       </c>
       <c r="G429" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H429" s="4">
         <v>2.8879999999999999</v>
@@ -28074,16 +28077,16 @@
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A430" s="4" t="s">
-        <v>994</v>
+        <v>920</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>995</v>
+        <v>921</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>19</v>
@@ -28092,7 +28095,7 @@
         <v>20</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H430" s="4">
         <v>2.8879999999999999</v>
@@ -28126,16 +28129,16 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A431" s="4" t="s">
-        <v>996</v>
+        <v>922</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>997</v>
+        <v>923</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E431" s="4" t="s">
         <v>19</v>
@@ -28144,7 +28147,7 @@
         <v>20</v>
       </c>
       <c r="G431" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H431" s="4">
         <v>2.8879999999999999</v>
@@ -28178,16 +28181,16 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A432" s="4" t="s">
-        <v>998</v>
+        <v>924</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>999</v>
+        <v>925</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>19</v>
@@ -28196,7 +28199,7 @@
         <v>20</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H432" s="4">
         <v>2.8879999999999999</v>
@@ -28230,16 +28233,16 @@
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A433" s="4" t="s">
-        <v>1000</v>
+        <v>926</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1001</v>
+        <v>927</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E433" s="4" t="s">
         <v>19</v>
@@ -28248,7 +28251,7 @@
         <v>20</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="H433" s="4">
         <v>2.8879999999999999</v>
@@ -28285,16 +28288,16 @@
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A434" s="4" t="s">
-        <v>1002</v>
+        <v>928</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1003</v>
+        <v>929</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>19</v>
@@ -28303,7 +28306,7 @@
         <v>20</v>
       </c>
       <c r="G434" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H434" s="4">
         <v>2.1659999999999999</v>
@@ -28343,16 +28346,16 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A435" s="4" t="s">
-        <v>1005</v>
+        <v>931</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1006</v>
+        <v>932</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>19</v>
@@ -28361,7 +28364,7 @@
         <v>20</v>
       </c>
       <c r="G435" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H435" s="4">
         <v>1.71</v>
@@ -28395,16 +28398,16 @@
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A436" s="4" t="s">
-        <v>1007</v>
+        <v>933</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1008</v>
+        <v>934</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>19</v>
@@ -28413,7 +28416,7 @@
         <v>20</v>
       </c>
       <c r="G436" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H436" s="4">
         <v>2.11</v>
@@ -28453,16 +28456,16 @@
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A437" s="4" t="s">
-        <v>1009</v>
+        <v>935</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1010</v>
+        <v>936</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>19</v>
@@ -28471,7 +28474,7 @@
         <v>20</v>
       </c>
       <c r="G437" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H437" s="4">
         <v>2.1659999999999999</v>
@@ -28511,16 +28514,16 @@
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A438" s="4" t="s">
-        <v>1011</v>
+        <v>937</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1012</v>
+        <v>938</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E438" s="4" t="s">
         <v>19</v>
@@ -28529,7 +28532,7 @@
         <v>20</v>
       </c>
       <c r="G438" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H438" s="4">
         <v>2.1659999999999999</v>
@@ -28563,16 +28566,16 @@
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A439" s="4" t="s">
-        <v>1013</v>
+        <v>939</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1014</v>
+        <v>940</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>19</v>
@@ -28581,7 +28584,7 @@
         <v>20</v>
       </c>
       <c r="G439" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H439" s="4">
         <v>2.1659999999999999</v>
@@ -28621,16 +28624,16 @@
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A440" s="4" t="s">
-        <v>1015</v>
+        <v>941</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1016</v>
+        <v>942</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>19</v>
@@ -28639,7 +28642,7 @@
         <v>20</v>
       </c>
       <c r="G440" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H440" s="4">
         <v>2.11</v>
@@ -28679,16 +28682,16 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A441" s="4" t="s">
-        <v>1017</v>
+        <v>943</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1018</v>
+        <v>944</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>19</v>
@@ -28697,7 +28700,7 @@
         <v>20</v>
       </c>
       <c r="G441" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H441" s="4">
         <v>1.71</v>
@@ -28737,16 +28740,16 @@
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A442" s="4" t="s">
-        <v>1019</v>
+        <v>945</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1020</v>
+        <v>946</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>19</v>
@@ -28755,7 +28758,7 @@
         <v>20</v>
       </c>
       <c r="G442" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H442" s="4">
         <v>2.1659999999999999</v>
@@ -28795,16 +28798,16 @@
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A443" s="4" t="s">
-        <v>1021</v>
+        <v>947</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1022</v>
+        <v>948</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>19</v>
@@ -28813,7 +28816,7 @@
         <v>20</v>
       </c>
       <c r="G443" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H443" s="4">
         <v>2.11</v>
@@ -28847,16 +28850,16 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A444" s="4" t="s">
-        <v>1023</v>
+        <v>949</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1024</v>
+        <v>950</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>19</v>
@@ -28865,7 +28868,7 @@
         <v>20</v>
       </c>
       <c r="G444" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H444" s="4">
         <v>1.71</v>
@@ -28905,16 +28908,16 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A445" s="4" t="s">
-        <v>1025</v>
+        <v>951</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>1026</v>
+        <v>952</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E445" s="4" t="s">
         <v>19</v>
@@ -28923,7 +28926,7 @@
         <v>20</v>
       </c>
       <c r="G445" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H445" s="4">
         <v>2.1659999999999999</v>
@@ -28957,16 +28960,16 @@
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A446" s="4" t="s">
-        <v>1027</v>
+        <v>953</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>1028</v>
+        <v>954</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>19</v>
@@ -28975,7 +28978,7 @@
         <v>20</v>
       </c>
       <c r="G446" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H446" s="4">
         <v>2.11</v>
@@ -29015,16 +29018,16 @@
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A447" s="4" t="s">
-        <v>1029</v>
+        <v>955</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1030</v>
+        <v>956</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>19</v>
@@ -29033,7 +29036,7 @@
         <v>20</v>
       </c>
       <c r="G447" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H447" s="4">
         <v>2.1659999999999999</v>
@@ -29073,16 +29076,16 @@
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A448" s="4" t="s">
-        <v>1031</v>
+        <v>957</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1032</v>
+        <v>958</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E448" s="4" t="s">
         <v>19</v>
@@ -29091,7 +29094,7 @@
         <v>20</v>
       </c>
       <c r="G448" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H448" s="4">
         <v>2.1659999999999999</v>
@@ -29131,16 +29134,16 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A449" s="4" t="s">
-        <v>1033</v>
+        <v>959</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>1034</v>
+        <v>960</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>19</v>
@@ -29149,7 +29152,7 @@
         <v>20</v>
       </c>
       <c r="G449" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H449" s="4">
         <v>2.1659999999999999</v>
@@ -29189,16 +29192,16 @@
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A450" s="4" t="s">
-        <v>1035</v>
+        <v>961</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1036</v>
+        <v>962</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>19</v>
@@ -29207,7 +29210,7 @@
         <v>20</v>
       </c>
       <c r="G450" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H450" s="4">
         <v>2.1659999999999999</v>
@@ -29247,16 +29250,16 @@
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A451" s="4" t="s">
-        <v>1037</v>
+        <v>963</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1038</v>
+        <v>964</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>19</v>
@@ -29265,7 +29268,7 @@
         <v>20</v>
       </c>
       <c r="G451" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H451" s="4">
         <v>2.1659999999999999</v>
@@ -29299,16 +29302,16 @@
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A452" s="4" t="s">
-        <v>1039</v>
+        <v>965</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1040</v>
+        <v>966</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>19</v>
@@ -29317,7 +29320,7 @@
         <v>20</v>
       </c>
       <c r="G452" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H452" s="4">
         <v>2.1659999999999999</v>
@@ -29357,16 +29360,16 @@
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A453" s="4" t="s">
-        <v>1041</v>
+        <v>967</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1042</v>
+        <v>968</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>19</v>
@@ -29375,7 +29378,7 @@
         <v>20</v>
       </c>
       <c r="G453" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H453" s="4">
         <v>2.1659999999999999</v>
@@ -29415,16 +29418,16 @@
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A454" s="4" t="s">
-        <v>1043</v>
+        <v>969</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1044</v>
+        <v>970</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>19</v>
@@ -29433,7 +29436,7 @@
         <v>20</v>
       </c>
       <c r="G454" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H454" s="4">
         <v>2.1659999999999999</v>
@@ -29473,16 +29476,16 @@
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A455" s="4" t="s">
-        <v>1045</v>
+        <v>971</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1046</v>
+        <v>972</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>19</v>
@@ -29491,7 +29494,7 @@
         <v>84</v>
       </c>
       <c r="G455" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H455" s="4">
         <v>1.296</v>
@@ -29531,16 +29534,16 @@
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A456" s="4" t="s">
-        <v>1047</v>
+        <v>973</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1048</v>
+        <v>974</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>19</v>
@@ -29549,7 +29552,7 @@
         <v>84</v>
       </c>
       <c r="G456" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H456" s="4">
         <v>1.296</v>
@@ -29589,16 +29592,16 @@
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A457" s="4" t="s">
-        <v>1049</v>
+        <v>975</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1050</v>
+        <v>976</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>19</v>
@@ -29607,7 +29610,7 @@
         <v>201</v>
       </c>
       <c r="G457" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H457" s="4">
         <v>1.296</v>
@@ -29641,16 +29644,16 @@
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A458" s="4" t="s">
-        <v>1051</v>
+        <v>977</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1052</v>
+        <v>978</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>19</v>
@@ -29659,7 +29662,7 @@
         <v>84</v>
       </c>
       <c r="G458" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H458" s="4">
         <v>1.296</v>
@@ -29699,16 +29702,16 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A459" s="4" t="s">
-        <v>1053</v>
+        <v>979</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1054</v>
+        <v>980</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>19</v>
@@ -29717,7 +29720,7 @@
         <v>84</v>
       </c>
       <c r="G459" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H459" s="4">
         <v>1.296</v>
@@ -29757,16 +29760,16 @@
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A460" s="4" t="s">
-        <v>1055</v>
+        <v>981</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1056</v>
+        <v>982</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>19</v>
@@ -29775,7 +29778,7 @@
         <v>84</v>
       </c>
       <c r="G460" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H460" s="4">
         <v>1.296</v>
@@ -29809,16 +29812,16 @@
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A461" s="4" t="s">
-        <v>1057</v>
+        <v>983</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>19</v>
@@ -29827,7 +29830,7 @@
         <v>201</v>
       </c>
       <c r="G461" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H461" s="4">
         <v>1.296</v>
@@ -29861,16 +29864,16 @@
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A462" s="4" t="s">
-        <v>1059</v>
+        <v>985</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1060</v>
+        <v>986</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>19</v>
@@ -29879,7 +29882,7 @@
         <v>84</v>
       </c>
       <c r="G462" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H462" s="4">
         <v>1.296</v>
@@ -29913,16 +29916,16 @@
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A463" s="4" t="s">
-        <v>1061</v>
+        <v>987</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1062</v>
+        <v>988</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>19</v>
@@ -29931,7 +29934,7 @@
         <v>84</v>
       </c>
       <c r="G463" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H463" s="4">
         <v>1.296</v>
@@ -29971,16 +29974,16 @@
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A464" s="4" t="s">
-        <v>1063</v>
+        <v>989</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1064</v>
+        <v>990</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>19</v>
@@ -29989,7 +29992,7 @@
         <v>84</v>
       </c>
       <c r="G464" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H464" s="4">
         <v>1.296</v>
@@ -30029,16 +30032,16 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A465" s="4" t="s">
-        <v>1065</v>
+        <v>991</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1066</v>
+        <v>992</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>19</v>
@@ -30047,7 +30050,7 @@
         <v>84</v>
       </c>
       <c r="G465" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H465" s="4">
         <v>1.296</v>
@@ -30087,16 +30090,16 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A466" s="4" t="s">
-        <v>1067</v>
+        <v>993</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1068</v>
+        <v>994</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>19</v>
@@ -30105,7 +30108,7 @@
         <v>84</v>
       </c>
       <c r="G466" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H466" s="4">
         <v>1.296</v>
@@ -30145,16 +30148,16 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A467" s="4" t="s">
-        <v>1069</v>
+        <v>995</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1070</v>
+        <v>996</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>19</v>
@@ -30163,7 +30166,7 @@
         <v>84</v>
       </c>
       <c r="G467" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H467" s="4">
         <v>1.296</v>
@@ -30203,16 +30206,16 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A468" s="4" t="s">
-        <v>1071</v>
+        <v>997</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1072</v>
+        <v>998</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>19</v>
@@ -30221,7 +30224,7 @@
         <v>84</v>
       </c>
       <c r="G468" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H468" s="4">
         <v>1.296</v>
@@ -30261,16 +30264,16 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A469" s="4" t="s">
-        <v>1073</v>
+        <v>999</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1074</v>
+        <v>1000</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>19</v>
@@ -30279,7 +30282,7 @@
         <v>84</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H469" s="4">
         <v>1.296</v>
@@ -30319,16 +30322,16 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A470" s="4" t="s">
-        <v>1075</v>
+        <v>1001</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1076</v>
+        <v>1002</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>19</v>
@@ -30337,7 +30340,7 @@
         <v>84</v>
       </c>
       <c r="G470" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H470" s="4">
         <v>1.296</v>
@@ -30371,16 +30374,16 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A471" s="4" t="s">
-        <v>1077</v>
+        <v>1003</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1078</v>
+        <v>1004</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>19</v>
@@ -30389,7 +30392,7 @@
         <v>84</v>
       </c>
       <c r="G471" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H471" s="4">
         <v>1.296</v>
@@ -30423,16 +30426,16 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A472" s="4" t="s">
-        <v>1079</v>
+        <v>1005</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1080</v>
+        <v>1006</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>19</v>
@@ -30441,7 +30444,7 @@
         <v>84</v>
       </c>
       <c r="G472" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H472" s="4">
         <v>1.296</v>
@@ -30475,16 +30478,16 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A473" s="4" t="s">
-        <v>1081</v>
+        <v>1007</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1082</v>
+        <v>1008</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>19</v>
@@ -30527,16 +30530,16 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A474" s="4" t="s">
-        <v>1083</v>
+        <v>1009</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1084</v>
+        <v>1010</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E474" s="4" t="s">
         <v>19</v>
@@ -30579,16 +30582,16 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A475" s="4" t="s">
-        <v>1085</v>
+        <v>1011</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1086</v>
+        <v>1012</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>19</v>
@@ -30631,16 +30634,16 @@
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A476" s="4" t="s">
-        <v>1087</v>
+        <v>1013</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1088</v>
+        <v>1014</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>19</v>
@@ -30683,16 +30686,16 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A477" s="4" t="s">
-        <v>1089</v>
+        <v>1015</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1090</v>
+        <v>1016</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E477" s="4" t="s">
         <v>19</v>
@@ -30701,7 +30704,7 @@
         <v>20</v>
       </c>
       <c r="G477" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H477" s="4">
         <v>2.11</v>
@@ -30738,16 +30741,16 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A478" s="4" t="s">
-        <v>1092</v>
+        <v>1018</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1093</v>
+        <v>1019</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>19</v>
@@ -30756,7 +30759,7 @@
         <v>20</v>
       </c>
       <c r="G478" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H478" s="4">
         <v>2.11</v>
@@ -30793,16 +30796,16 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A479" s="4" t="s">
-        <v>1094</v>
+        <v>1020</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1095</v>
+        <v>1021</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>19</v>
@@ -30811,7 +30814,7 @@
         <v>20</v>
       </c>
       <c r="G479" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H479" s="4">
         <v>2.11</v>
@@ -30848,16 +30851,16 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A480" s="4" t="s">
-        <v>1096</v>
+        <v>1022</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1097</v>
+        <v>1023</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>19</v>
@@ -30866,7 +30869,7 @@
         <v>20</v>
       </c>
       <c r="G480" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H480" s="4">
         <v>2.11</v>
@@ -30903,16 +30906,16 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A481" s="4" t="s">
-        <v>1098</v>
+        <v>1024</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1099</v>
+        <v>1025</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E481" s="4" t="s">
         <v>19</v>
@@ -30921,7 +30924,7 @@
         <v>20</v>
       </c>
       <c r="G481" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H481" s="4">
         <v>2.11</v>
@@ -30958,16 +30961,16 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A482" s="4" t="s">
-        <v>1100</v>
+        <v>1026</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1101</v>
+        <v>1027</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>19</v>
@@ -30976,7 +30979,7 @@
         <v>20</v>
       </c>
       <c r="G482" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H482" s="4">
         <v>2.1659999999999999</v>
@@ -31013,16 +31016,16 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A483" s="4" t="s">
-        <v>1102</v>
+        <v>1028</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1103</v>
+        <v>1029</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E483" s="4" t="s">
         <v>19</v>
@@ -31031,7 +31034,7 @@
         <v>20</v>
       </c>
       <c r="G483" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H483" s="4">
         <v>2.11</v>
@@ -31068,16 +31071,16 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A484" s="4" t="s">
-        <v>1104</v>
+        <v>1030</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1105</v>
+        <v>1031</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E484" s="4" t="s">
         <v>19</v>
@@ -31086,7 +31089,7 @@
         <v>20</v>
       </c>
       <c r="G484" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H484" s="4">
         <v>2.1659999999999999</v>
@@ -31123,16 +31126,16 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A485" s="4" t="s">
-        <v>1106</v>
+        <v>1032</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1107</v>
+        <v>1033</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>19</v>
@@ -31141,7 +31144,7 @@
         <v>20</v>
       </c>
       <c r="G485" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H485" s="4">
         <v>2.11</v>
@@ -31178,16 +31181,16 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A486" s="4" t="s">
-        <v>1108</v>
+        <v>1034</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1109</v>
+        <v>1035</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>19</v>
@@ -31196,7 +31199,7 @@
         <v>20</v>
       </c>
       <c r="G486" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H486" s="4">
         <v>2.1659999999999999</v>
@@ -31230,16 +31233,16 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A487" s="4" t="s">
-        <v>1110</v>
+        <v>1036</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1111</v>
+        <v>1037</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>19</v>
@@ -31248,7 +31251,7 @@
         <v>20</v>
       </c>
       <c r="G487" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H487" s="4">
         <v>2.1659999999999999</v>
@@ -31282,16 +31285,16 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A488" s="4" t="s">
-        <v>1112</v>
+        <v>1038</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1113</v>
+        <v>1039</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>19</v>
@@ -31300,7 +31303,7 @@
         <v>20</v>
       </c>
       <c r="G488" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H488" s="4">
         <v>2.1659999999999999</v>
@@ -31334,16 +31337,16 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A489" s="4" t="s">
-        <v>1114</v>
+        <v>1040</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1115</v>
+        <v>1041</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E489" s="4" t="s">
         <v>19</v>
@@ -31352,7 +31355,7 @@
         <v>20</v>
       </c>
       <c r="G489" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H489" s="4">
         <v>1.444</v>
@@ -31389,16 +31392,16 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A490" s="4" t="s">
-        <v>1116</v>
+        <v>1042</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1117</v>
+        <v>1043</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>19</v>
@@ -31407,7 +31410,7 @@
         <v>20</v>
       </c>
       <c r="G490" s="4" t="s">
-        <v>1091</v>
+        <v>1017</v>
       </c>
       <c r="H490" s="4">
         <v>2.11</v>
@@ -31444,16 +31447,16 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A491" s="4" t="s">
-        <v>1118</v>
+        <v>1044</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1119</v>
+        <v>1045</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>19</v>
@@ -31462,7 +31465,7 @@
         <v>20</v>
       </c>
       <c r="G491" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H491" s="4">
         <v>2.11</v>
@@ -31502,16 +31505,16 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A492" s="4" t="s">
-        <v>1120</v>
+        <v>1046</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1121</v>
+        <v>1047</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E492" s="4" t="s">
         <v>19</v>
@@ -31520,7 +31523,7 @@
         <v>20</v>
       </c>
       <c r="G492" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H492" s="4">
         <v>2.11</v>
@@ -31560,16 +31563,16 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A493" s="4" t="s">
-        <v>1122</v>
+        <v>1048</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1123</v>
+        <v>1049</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>19</v>
@@ -31578,7 +31581,7 @@
         <v>20</v>
       </c>
       <c r="G493" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H493" s="4">
         <v>2.1659999999999999</v>
@@ -31618,16 +31621,16 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A494" s="4" t="s">
-        <v>1124</v>
+        <v>1050</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1125</v>
+        <v>1051</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E494" s="4" t="s">
         <v>19</v>
@@ -31636,7 +31639,7 @@
         <v>20</v>
       </c>
       <c r="G494" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H494" s="4">
         <v>2.11</v>
@@ -31676,16 +31679,16 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A495" s="4" t="s">
-        <v>1126</v>
+        <v>1052</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1127</v>
+        <v>1053</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>19</v>
@@ -31694,7 +31697,7 @@
         <v>20</v>
       </c>
       <c r="G495" s="4" t="s">
-        <v>1128</v>
+        <v>1054</v>
       </c>
       <c r="H495" s="4">
         <v>2.1659999999999999</v>
@@ -31728,16 +31731,16 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A496" s="4" t="s">
-        <v>1129</v>
+        <v>1055</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1130</v>
+        <v>1056</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E496" s="4" t="s">
         <v>19</v>
@@ -31746,7 +31749,7 @@
         <v>20</v>
       </c>
       <c r="G496" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H496" s="4">
         <v>2.11</v>
@@ -31786,16 +31789,16 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A497" s="4" t="s">
-        <v>1131</v>
+        <v>1057</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1132</v>
+        <v>1058</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>19</v>
@@ -31804,7 +31807,7 @@
         <v>20</v>
       </c>
       <c r="G497" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H497" s="4">
         <v>2.11</v>
@@ -31844,16 +31847,16 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A498" s="4" t="s">
-        <v>1133</v>
+        <v>1059</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1134</v>
+        <v>1060</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E498" s="4" t="s">
         <v>19</v>
@@ -31862,7 +31865,7 @@
         <v>20</v>
       </c>
       <c r="G498" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H498" s="4">
         <v>2.11</v>
@@ -31902,16 +31905,16 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A499" s="4" t="s">
-        <v>1135</v>
+        <v>1061</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1136</v>
+        <v>1062</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E499" s="4" t="s">
         <v>19</v>
@@ -31920,7 +31923,7 @@
         <v>20</v>
       </c>
       <c r="G499" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H499" s="4">
         <v>2.11</v>
@@ -31960,16 +31963,16 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A500" s="4" t="s">
-        <v>1137</v>
+        <v>1063</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1138</v>
+        <v>1064</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E500" s="4" t="s">
         <v>19</v>
@@ -31978,7 +31981,7 @@
         <v>20</v>
       </c>
       <c r="G500" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H500" s="4">
         <v>2.11</v>
@@ -32018,16 +32021,16 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A501" s="4" t="s">
-        <v>1139</v>
+        <v>1065</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1140</v>
+        <v>1066</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E501" s="4" t="s">
         <v>19</v>
@@ -32036,7 +32039,7 @@
         <v>20</v>
       </c>
       <c r="G501" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H501" s="4">
         <v>2.11</v>
@@ -32070,16 +32073,16 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A502" s="4" t="s">
-        <v>1141</v>
+        <v>1067</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1142</v>
+        <v>1068</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E502" s="4" t="s">
         <v>19</v>
@@ -32088,7 +32091,7 @@
         <v>20</v>
       </c>
       <c r="G502" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H502" s="4">
         <v>2.11</v>
@@ -32122,16 +32125,16 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A503" s="4" t="s">
-        <v>1143</v>
+        <v>1069</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1144</v>
+        <v>1070</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E503" s="4" t="s">
         <v>19</v>
@@ -32140,7 +32143,7 @@
         <v>20</v>
       </c>
       <c r="G503" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H503" s="4">
         <v>2.11</v>
@@ -32180,25 +32183,25 @@
     </row>
     <row r="504" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A504" s="4" t="s">
-        <v>1145</v>
+        <v>1071</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1146</v>
+        <v>1072</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E504" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F504" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G504" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H504" s="4">
         <v>0.56000000000000005</v>
@@ -32235,25 +32238,25 @@
     </row>
     <row r="505" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A505" s="4" t="s">
-        <v>1147</v>
+        <v>1073</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1148</v>
+        <v>1074</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E505" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F505" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G505" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H505" s="4">
         <v>0.56000000000000005</v>
@@ -32287,25 +32290,25 @@
     </row>
     <row r="506" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A506" s="4" t="s">
-        <v>1149</v>
+        <v>1075</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1150</v>
+        <v>1076</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E506" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G506" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H506" s="4">
         <v>0.56000000000000005</v>
@@ -32339,25 +32342,25 @@
     </row>
     <row r="507" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A507" s="4" t="s">
-        <v>1151</v>
+        <v>1077</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1152</v>
+        <v>1078</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E507" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F507" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G507" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H507" s="4">
         <v>0.56000000000000005</v>
@@ -32391,25 +32394,25 @@
     </row>
     <row r="508" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A508" s="4" t="s">
-        <v>1153</v>
+        <v>1079</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1154</v>
+        <v>1080</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E508" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G508" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H508" s="4">
         <v>0.56000000000000005</v>
@@ -32443,25 +32446,25 @@
     </row>
     <row r="509" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A509" s="4" t="s">
-        <v>1155</v>
+        <v>1081</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1156</v>
+        <v>1082</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E509" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F509" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G509" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H509" s="4">
         <v>0.56000000000000005</v>
@@ -32498,7 +32501,7 @@
         <v>793</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1189</v>
+        <v>1115</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>760</v>
@@ -32553,7 +32556,7 @@
         <v>798</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1194</v>
+        <v>1120</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>760</v>
@@ -32605,10 +32608,10 @@
     </row>
     <row r="512" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A512" s="4" t="s">
-        <v>1276</v>
+        <v>1202</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1252</v>
+        <v>1178</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>760</v>
@@ -32620,7 +32623,7 @@
         <v>19</v>
       </c>
       <c r="F512" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G512" s="4">
         <v>21</v>
@@ -32629,10 +32632,10 @@
         <v>1.44</v>
       </c>
       <c r="I512" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J512" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K512" s="4">
         <v>600</v>
@@ -32658,10 +32661,10 @@
     </row>
     <row r="513" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A513" s="4" t="s">
-        <v>1277</v>
+        <v>1203</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1248</v>
+        <v>1174</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>760</v>
@@ -32673,7 +32676,7 @@
         <v>19</v>
       </c>
       <c r="F513" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G513" s="4">
         <v>21</v>
@@ -32682,10 +32685,10 @@
         <v>1.44</v>
       </c>
       <c r="I513" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J513" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K513" s="4">
         <v>600</v>
@@ -32711,10 +32714,10 @@
     </row>
     <row r="514" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A514" s="4" t="s">
-        <v>1278</v>
+        <v>1204</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1249</v>
+        <v>1175</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>760</v>
@@ -32726,7 +32729,7 @@
         <v>19</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G514" s="4">
         <v>21</v>
@@ -32735,10 +32738,10 @@
         <v>1.44</v>
       </c>
       <c r="I514" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J514" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K514" s="4">
         <v>600</v>
@@ -32764,10 +32767,10 @@
     </row>
     <row r="515" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A515" s="4" t="s">
-        <v>1279</v>
+        <v>1205</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1253</v>
+        <v>1179</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>760</v>
@@ -32779,7 +32782,7 @@
         <v>19</v>
       </c>
       <c r="F515" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G515" s="4">
         <v>21</v>
@@ -32788,10 +32791,10 @@
         <v>1.44</v>
       </c>
       <c r="I515" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J515" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K515" s="4">
         <v>600</v>
@@ -32817,10 +32820,10 @@
     </row>
     <row r="516" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A516" s="4" t="s">
-        <v>1280</v>
+        <v>1206</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1251</v>
+        <v>1177</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>760</v>
@@ -32832,7 +32835,7 @@
         <v>19</v>
       </c>
       <c r="F516" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G516" s="4">
         <v>21</v>
@@ -32841,10 +32844,10 @@
         <v>1.44</v>
       </c>
       <c r="I516" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J516" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K516" s="4">
         <v>600</v>
@@ -32870,10 +32873,10 @@
     </row>
     <row r="517" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A517" s="4" t="s">
-        <v>1281</v>
+        <v>1207</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1250</v>
+        <v>1176</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>760</v>
@@ -32885,7 +32888,7 @@
         <v>19</v>
       </c>
       <c r="F517" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G517" s="4">
         <v>21</v>
@@ -32894,10 +32897,10 @@
         <v>1.44</v>
       </c>
       <c r="I517" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J517" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K517" s="4">
         <v>600</v>
@@ -32923,10 +32926,10 @@
     </row>
     <row r="518" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A518" s="4" t="s">
-        <v>1282</v>
+        <v>1208</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1254</v>
+        <v>1180</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>760</v>
@@ -32938,7 +32941,7 @@
         <v>19</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G518" s="4">
         <v>21</v>
@@ -32947,10 +32950,10 @@
         <v>1.44</v>
       </c>
       <c r="I518" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J518" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K518" s="4">
         <v>600</v>
@@ -32976,10 +32979,10 @@
     </row>
     <row r="519" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A519" s="4" t="s">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1255</v>
+        <v>1181</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>760</v>
@@ -32991,7 +32994,7 @@
         <v>19</v>
       </c>
       <c r="F519" s="4" t="s">
-        <v>1284</v>
+        <v>1210</v>
       </c>
       <c r="G519" s="4">
         <v>21</v>
@@ -33000,10 +33003,10 @@
         <v>1.44</v>
       </c>
       <c r="I519" s="4" t="s">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="J519" s="8" t="s">
-        <v>1286</v>
+        <v>1212</v>
       </c>
       <c r="K519" s="4">
         <v>600</v>
@@ -33032,7 +33035,7 @@
         <v>814</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1210</v>
+        <v>1136</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>760</v>
@@ -33050,7 +33053,7 @@
         <v>9</v>
       </c>
       <c r="H520" s="4" t="s">
-        <v>1322</v>
+        <v>1248</v>
       </c>
       <c r="I520" s="7" t="s">
         <v>22</v>
@@ -33087,7 +33090,7 @@
         <v>811</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1207</v>
+        <v>1133</v>
       </c>
       <c r="C521" s="4" t="s">
         <v>760</v>
@@ -33105,7 +33108,7 @@
         <v>9</v>
       </c>
       <c r="H521" s="4" t="s">
-        <v>1322</v>
+        <v>1248</v>
       </c>
       <c r="I521" s="7" t="s">
         <v>22</v>
@@ -33142,7 +33145,7 @@
         <v>813</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1209</v>
+        <v>1135</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>760</v>
@@ -33160,7 +33163,7 @@
         <v>9</v>
       </c>
       <c r="H522" s="4" t="s">
-        <v>1322</v>
+        <v>1248</v>
       </c>
       <c r="I522" s="7" t="s">
         <v>22</v>
@@ -33197,7 +33200,7 @@
         <v>812</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1208</v>
+        <v>1134</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>760</v>
@@ -33215,7 +33218,7 @@
         <v>10</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>1323</v>
+        <v>1249</v>
       </c>
       <c r="I523" s="7" t="s">
         <v>22</v>
@@ -33252,7 +33255,7 @@
         <v>815</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1211</v>
+        <v>1137</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>760</v>
@@ -33270,7 +33273,7 @@
         <v>10</v>
       </c>
       <c r="H524" s="4" t="s">
-        <v>1323</v>
+        <v>1249</v>
       </c>
       <c r="I524" s="7" t="s">
         <v>22</v>
@@ -33307,7 +33310,7 @@
         <v>819</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1215</v>
+        <v>1141</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>760</v>
@@ -33325,7 +33328,7 @@
         <v>11</v>
       </c>
       <c r="H525" s="4" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="I525" s="7" t="s">
         <v>22</v>
@@ -33362,7 +33365,7 @@
         <v>816</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1212</v>
+        <v>1138</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>760</v>
@@ -33380,7 +33383,7 @@
         <v>11</v>
       </c>
       <c r="H526" s="4" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="I526" s="7" t="s">
         <v>22</v>
@@ -33417,7 +33420,7 @@
         <v>818</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1214</v>
+        <v>1140</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>760</v>
@@ -33435,7 +33438,7 @@
         <v>11</v>
       </c>
       <c r="H527" s="4" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="I527" s="7" t="s">
         <v>22</v>
@@ -33472,7 +33475,7 @@
         <v>817</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1213</v>
+        <v>1139</v>
       </c>
       <c r="C528" s="4" t="s">
         <v>760</v>
@@ -33490,7 +33493,7 @@
         <v>11</v>
       </c>
       <c r="H528" s="4" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="I528" s="7" t="s">
         <v>22</v>
@@ -33527,7 +33530,7 @@
         <v>820</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1216</v>
+        <v>1142</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>760</v>
@@ -33545,7 +33548,7 @@
         <v>11</v>
       </c>
       <c r="H529" s="4" t="s">
-        <v>1324</v>
+        <v>1250</v>
       </c>
       <c r="I529" s="7" t="s">
         <v>22</v>
@@ -33582,7 +33585,7 @@
         <v>825</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1220</v>
+        <v>1146</v>
       </c>
       <c r="C530" s="4" t="s">
         <v>760</v>
@@ -33600,7 +33603,7 @@
         <v>14</v>
       </c>
       <c r="H530" s="4" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="I530" s="7" t="s">
         <v>22</v>
@@ -33637,7 +33640,7 @@
         <v>821</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1217</v>
+        <v>1143</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>760</v>
@@ -33655,7 +33658,7 @@
         <v>14</v>
       </c>
       <c r="H531" s="4" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="I531" s="7" t="s">
         <v>22</v>
@@ -33692,7 +33695,7 @@
         <v>824</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1219</v>
+        <v>1145</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>760</v>
@@ -33710,7 +33713,7 @@
         <v>14</v>
       </c>
       <c r="H532" s="4" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="I532" s="7" t="s">
         <v>22</v>
@@ -33747,7 +33750,7 @@
         <v>823</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1218</v>
+        <v>1144</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>760</v>
@@ -33765,7 +33768,7 @@
         <v>14</v>
       </c>
       <c r="H533" s="4" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="I533" s="7" t="s">
         <v>22</v>
@@ -33802,7 +33805,7 @@
         <v>826</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1221</v>
+        <v>1147</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>760</v>
@@ -33820,7 +33823,7 @@
         <v>14</v>
       </c>
       <c r="H534" s="4" t="s">
-        <v>1320</v>
+        <v>1246</v>
       </c>
       <c r="I534" s="7" t="s">
         <v>22</v>
@@ -33857,7 +33860,7 @@
         <v>827</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1289</v>
+        <v>1215</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>760</v>
@@ -33910,7 +33913,7 @@
         <v>828</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1290</v>
+        <v>1216</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>760</v>
@@ -33963,7 +33966,7 @@
         <v>829</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1288</v>
+        <v>1214</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>760</v>
@@ -33975,7 +33978,7 @@
         <v>19</v>
       </c>
       <c r="F537" s="4" t="s">
-        <v>1287</v>
+        <v>1213</v>
       </c>
       <c r="G537" s="4">
         <v>20</v>
@@ -34013,16 +34016,16 @@
     </row>
     <row r="538" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A538" s="4" t="s">
-        <v>1294</v>
+        <v>1220</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1295</v>
+        <v>1221</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>975</v>
+        <v>901</v>
       </c>
       <c r="E538" s="4" t="s">
         <v>19</v>
@@ -34031,7 +34034,7 @@
         <v>20</v>
       </c>
       <c r="G538" s="4" t="s">
-        <v>1004</v>
+        <v>930</v>
       </c>
       <c r="H538" s="4">
         <v>2.1659999999999999</v>
@@ -34071,16 +34074,16 @@
     </row>
     <row r="539" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A539" s="4" t="s">
-        <v>839</v>
+        <v>1252</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1296</v>
+        <v>1222</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E539" s="4" t="s">
         <v>19</v>
@@ -34092,7 +34095,7 @@
         <v>10</v>
       </c>
       <c r="H539" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I539" s="4" t="s">
         <v>22</v>
@@ -34126,16 +34129,16 @@
     </row>
     <row r="540" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A540" s="4" t="s">
-        <v>840</v>
+        <v>1253</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1297</v>
+        <v>1223</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E540" s="4" t="s">
         <v>19</v>
@@ -34147,7 +34150,7 @@
         <v>10</v>
       </c>
       <c r="H540" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I540" s="4" t="s">
         <v>22</v>
@@ -34181,16 +34184,16 @@
     </row>
     <row r="541" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A541" s="4" t="s">
-        <v>841</v>
+        <v>1254</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1298</v>
+        <v>1224</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E541" s="4" t="s">
         <v>19</v>
@@ -34202,7 +34205,7 @@
         <v>10</v>
       </c>
       <c r="H541" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I541" s="4" t="s">
         <v>22</v>
@@ -34236,16 +34239,16 @@
     </row>
     <row r="542" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A542" s="4" t="s">
-        <v>842</v>
+        <v>1255</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1299</v>
+        <v>1225</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E542" s="4" t="s">
         <v>19</v>
@@ -34257,7 +34260,7 @@
         <v>10</v>
       </c>
       <c r="H542" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I542" s="4" t="s">
         <v>22</v>
@@ -34291,16 +34294,16 @@
     </row>
     <row r="543" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A543" s="4" t="s">
-        <v>843</v>
+        <v>1256</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1300</v>
+        <v>1226</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E543" s="4" t="s">
         <v>19</v>
@@ -34312,7 +34315,7 @@
         <v>10</v>
       </c>
       <c r="H543" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I543" s="4" t="s">
         <v>22</v>
@@ -34346,16 +34349,16 @@
     </row>
     <row r="544" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A544" s="4" t="s">
-        <v>844</v>
+        <v>1257</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1301</v>
+        <v>1227</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E544" s="4" t="s">
         <v>19</v>
@@ -34367,7 +34370,7 @@
         <v>10</v>
       </c>
       <c r="H544" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I544" s="4" t="s">
         <v>22</v>
@@ -34401,16 +34404,16 @@
     </row>
     <row r="545" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A545" s="4" t="s">
-        <v>845</v>
+        <v>1258</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1302</v>
+        <v>1228</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E545" s="4" t="s">
         <v>19</v>
@@ -34422,7 +34425,7 @@
         <v>10</v>
       </c>
       <c r="H545" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I545" s="4" t="s">
         <v>22</v>
@@ -34456,16 +34459,16 @@
     </row>
     <row r="546" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A546" s="4" t="s">
-        <v>846</v>
+        <v>1259</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1303</v>
+        <v>1229</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>19</v>
@@ -34477,7 +34480,7 @@
         <v>10</v>
       </c>
       <c r="H546" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I546" s="4" t="s">
         <v>22</v>
@@ -34511,16 +34514,16 @@
     </row>
     <row r="547" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A547" s="4" t="s">
-        <v>847</v>
+        <v>1260</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1304</v>
+        <v>1230</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E547" s="4" t="s">
         <v>19</v>
@@ -34532,7 +34535,7 @@
         <v>10</v>
       </c>
       <c r="H547" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I547" s="4" t="s">
         <v>22</v>
@@ -34566,16 +34569,16 @@
     </row>
     <row r="548" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A548" s="4" t="s">
-        <v>848</v>
+        <v>1261</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1305</v>
+        <v>1231</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E548" s="4" t="s">
         <v>19</v>
@@ -34587,7 +34590,7 @@
         <v>10</v>
       </c>
       <c r="H548" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I548" s="4" t="s">
         <v>22</v>
@@ -34621,16 +34624,16 @@
     </row>
     <row r="549" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A549" s="4" t="s">
-        <v>849</v>
+        <v>1262</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1306</v>
+        <v>1232</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>19</v>
@@ -34642,7 +34645,7 @@
         <v>58</v>
       </c>
       <c r="H549" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I549" s="4" t="s">
         <v>22</v>
@@ -34674,16 +34677,16 @@
     </row>
     <row r="550" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A550" s="4" t="s">
-        <v>850</v>
+        <v>1263</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1307</v>
+        <v>1233</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E550" s="4" t="s">
         <v>19</v>
@@ -34695,7 +34698,7 @@
         <v>58</v>
       </c>
       <c r="H550" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I550" s="4" t="s">
         <v>22</v>
@@ -34727,16 +34730,16 @@
     </row>
     <row r="551" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A551" s="4" t="s">
-        <v>851</v>
+        <v>1264</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1308</v>
+        <v>1234</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E551" s="4" t="s">
         <v>19</v>
@@ -34748,7 +34751,7 @@
         <v>58</v>
       </c>
       <c r="H551" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I551" s="4" t="s">
         <v>22</v>
@@ -34780,16 +34783,16 @@
     </row>
     <row r="552" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A552" s="4" t="s">
-        <v>852</v>
+        <v>1265</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1309</v>
+        <v>1235</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E552" s="4" t="s">
         <v>19</v>
@@ -34801,7 +34804,7 @@
         <v>58</v>
       </c>
       <c r="H552" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I552" s="4" t="s">
         <v>22</v>
@@ -34833,16 +34836,16 @@
     </row>
     <row r="553" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A553" s="4" t="s">
-        <v>853</v>
+        <v>1266</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1310</v>
+        <v>1236</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E553" s="4" t="s">
         <v>19</v>
@@ -34854,7 +34857,7 @@
         <v>58</v>
       </c>
       <c r="H553" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I553" s="4" t="s">
         <v>22</v>
@@ -34886,16 +34889,16 @@
     </row>
     <row r="554" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A554" s="4" t="s">
-        <v>854</v>
+        <v>1267</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1311</v>
+        <v>1237</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E554" s="4" t="s">
         <v>19</v>
@@ -34907,7 +34910,7 @@
         <v>58</v>
       </c>
       <c r="H554" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I554" s="4" t="s">
         <v>22</v>
@@ -34939,16 +34942,16 @@
     </row>
     <row r="555" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A555" s="4" t="s">
-        <v>855</v>
+        <v>1268</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1312</v>
+        <v>1238</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>19</v>
@@ -34960,7 +34963,7 @@
         <v>58</v>
       </c>
       <c r="H555" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I555" s="4" t="s">
         <v>22</v>
@@ -34992,16 +34995,16 @@
     </row>
     <row r="556" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A556" s="4" t="s">
-        <v>856</v>
+        <v>1269</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1313</v>
+        <v>1239</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E556" s="4" t="s">
         <v>19</v>
@@ -35013,7 +35016,7 @@
         <v>58</v>
       </c>
       <c r="H556" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I556" s="4" t="s">
         <v>22</v>
@@ -35045,16 +35048,16 @@
     </row>
     <row r="557" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A557" s="4" t="s">
-        <v>857</v>
+        <v>1270</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E557" s="4" t="s">
         <v>19</v>
@@ -35066,7 +35069,7 @@
         <v>58</v>
       </c>
       <c r="H557" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I557" s="4" t="s">
         <v>22</v>
@@ -35098,16 +35101,16 @@
     </row>
     <row r="558" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A558" s="4" t="s">
-        <v>859</v>
+        <v>1271</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E558" s="4" t="s">
         <v>19</v>
@@ -35119,7 +35122,7 @@
         <v>58</v>
       </c>
       <c r="H558" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I558" s="4" t="s">
         <v>22</v>
@@ -35151,16 +35154,16 @@
     </row>
     <row r="559" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A559" s="4" t="s">
-        <v>861</v>
+        <v>1272</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E559" s="4" t="s">
         <v>19</v>
@@ -35169,10 +35172,10 @@
         <v>20</v>
       </c>
       <c r="G559" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H559" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I559" s="4" t="s">
         <v>22</v>
@@ -35184,7 +35187,7 @@
         <v>180</v>
       </c>
       <c r="L559" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M559" s="7">
         <v>61.95</v>
@@ -35206,16 +35209,16 @@
     </row>
     <row r="560" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A560" s="4" t="s">
-        <v>865</v>
+        <v>1273</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E560" s="4" t="s">
         <v>19</v>
@@ -35224,10 +35227,10 @@
         <v>20</v>
       </c>
       <c r="G560" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H560" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I560" s="4" t="s">
         <v>22</v>
@@ -35239,7 +35242,7 @@
         <v>180</v>
       </c>
       <c r="L560" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M560" s="7">
         <v>61.95</v>
@@ -35261,16 +35264,16 @@
     </row>
     <row r="561" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A561" s="4" t="s">
-        <v>867</v>
+        <v>1274</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E561" s="4" t="s">
         <v>19</v>
@@ -35279,10 +35282,10 @@
         <v>20</v>
       </c>
       <c r="G561" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H561" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I561" s="4" t="s">
         <v>22</v>
@@ -35294,7 +35297,7 @@
         <v>180</v>
       </c>
       <c r="L561" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M561" s="7">
         <v>61.95</v>
@@ -35316,16 +35319,16 @@
     </row>
     <row r="562" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A562" s="4" t="s">
-        <v>869</v>
+        <v>1275</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E562" s="4" t="s">
         <v>19</v>
@@ -35334,10 +35337,10 @@
         <v>20</v>
       </c>
       <c r="G562" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H562" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I562" s="4" t="s">
         <v>22</v>
@@ -35349,7 +35352,7 @@
         <v>180</v>
       </c>
       <c r="L562" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M562" s="7">
         <v>61.95</v>
@@ -35368,16 +35371,16 @@
     </row>
     <row r="563" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A563" s="4" t="s">
-        <v>871</v>
+        <v>1276</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E563" s="4" t="s">
         <v>19</v>
@@ -35386,10 +35389,10 @@
         <v>20</v>
       </c>
       <c r="G563" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H563" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I563" s="4" t="s">
         <v>22</v>
@@ -35401,7 +35404,7 @@
         <v>180</v>
       </c>
       <c r="L563" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M563" s="7">
         <v>56.95</v>
@@ -35420,16 +35423,16 @@
     </row>
     <row r="564" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A564" s="4" t="s">
-        <v>873</v>
+        <v>1277</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E564" s="4" t="s">
         <v>19</v>
@@ -35438,10 +35441,10 @@
         <v>20</v>
       </c>
       <c r="G564" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H564" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I564" s="4" t="s">
         <v>22</v>
@@ -35453,7 +35456,7 @@
         <v>180</v>
       </c>
       <c r="L564" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M564" s="7">
         <v>61.95</v>
@@ -35472,16 +35475,16 @@
     </row>
     <row r="565" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A565" s="4" t="s">
-        <v>875</v>
+        <v>1278</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E565" s="4" t="s">
         <v>19</v>
@@ -35490,10 +35493,10 @@
         <v>20</v>
       </c>
       <c r="G565" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H565" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I565" s="4" t="s">
         <v>22</v>
@@ -35505,7 +35508,7 @@
         <v>180</v>
       </c>
       <c r="L565" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M565" s="7">
         <v>56.95</v>
@@ -35524,16 +35527,16 @@
     </row>
     <row r="566" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A566" s="4" t="s">
-        <v>877</v>
+        <v>1279</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E566" s="4" t="s">
         <v>19</v>
@@ -35542,10 +35545,10 @@
         <v>20</v>
       </c>
       <c r="G566" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H566" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I566" s="4" t="s">
         <v>22</v>
@@ -35557,7 +35560,7 @@
         <v>180</v>
       </c>
       <c r="L566" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M566" s="7">
         <v>56.95</v>
@@ -35576,16 +35579,16 @@
     </row>
     <row r="567" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A567" s="4" t="s">
-        <v>879</v>
+        <v>1280</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E567" s="4" t="s">
         <v>19</v>
@@ -35594,10 +35597,10 @@
         <v>20</v>
       </c>
       <c r="G567" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H567" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I567" s="4" t="s">
         <v>22</v>
@@ -35609,7 +35612,7 @@
         <v>180</v>
       </c>
       <c r="L567" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="M567" s="7">
         <v>61.95</v>
@@ -35628,16 +35631,16 @@
     </row>
     <row r="568" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A568" s="4" t="s">
-        <v>881</v>
+        <v>1281</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E568" s="4" t="s">
         <v>19</v>
@@ -35646,10 +35649,10 @@
         <v>84</v>
       </c>
       <c r="G568" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H568" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I568" s="4" t="s">
         <v>22</v>
@@ -35680,16 +35683,16 @@
     </row>
     <row r="569" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A569" s="4" t="s">
-        <v>883</v>
+        <v>1282</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>884</v>
+        <v>853</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E569" s="4" t="s">
         <v>19</v>
@@ -35698,10 +35701,10 @@
         <v>84</v>
       </c>
       <c r="G569" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H569" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I569" s="4" t="s">
         <v>22</v>
@@ -35732,16 +35735,16 @@
     </row>
     <row r="570" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A570" s="4" t="s">
-        <v>885</v>
+        <v>1283</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E570" s="4" t="s">
         <v>19</v>
@@ -35750,10 +35753,10 @@
         <v>84</v>
       </c>
       <c r="G570" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H570" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I570" s="4" t="s">
         <v>22</v>
@@ -35784,16 +35787,16 @@
     </row>
     <row r="571" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A571" s="4" t="s">
-        <v>887</v>
+        <v>1284</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E571" s="4" t="s">
         <v>19</v>
@@ -35802,10 +35805,10 @@
         <v>84</v>
       </c>
       <c r="G571" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H571" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I571" s="4" t="s">
         <v>22</v>
@@ -35839,16 +35842,16 @@
     </row>
     <row r="572" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A572" s="4" t="s">
-        <v>889</v>
+        <v>1285</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E572" s="4" t="s">
         <v>19</v>
@@ -35857,10 +35860,10 @@
         <v>84</v>
       </c>
       <c r="G572" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H572" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I572" s="4" t="s">
         <v>22</v>
@@ -35894,16 +35897,16 @@
     </row>
     <row r="573" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A573" s="4" t="s">
-        <v>891</v>
+        <v>1286</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E573" s="4" t="s">
         <v>19</v>
@@ -35912,10 +35915,10 @@
         <v>84</v>
       </c>
       <c r="G573" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H573" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I573" s="4" t="s">
         <v>22</v>
@@ -35949,16 +35952,16 @@
     </row>
     <row r="574" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A574" s="4" t="s">
-        <v>893</v>
+        <v>1287</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E574" s="4" t="s">
         <v>19</v>
@@ -35967,10 +35970,10 @@
         <v>84</v>
       </c>
       <c r="G574" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H574" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I574" s="4" t="s">
         <v>22</v>
@@ -36004,16 +36007,16 @@
     </row>
     <row r="575" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A575" s="4" t="s">
-        <v>895</v>
+        <v>1288</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E575" s="4" t="s">
         <v>19</v>
@@ -36022,10 +36025,10 @@
         <v>84</v>
       </c>
       <c r="G575" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H575" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I575" s="4" t="s">
         <v>22</v>
@@ -36059,16 +36062,16 @@
     </row>
     <row r="576" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A576" s="4" t="s">
-        <v>897</v>
+        <v>1289</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E576" s="4" t="s">
         <v>19</v>
@@ -36077,10 +36080,10 @@
         <v>84</v>
       </c>
       <c r="G576" s="6" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="H576" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I576" s="4" t="s">
         <v>22</v>
@@ -36114,16 +36117,16 @@
     </row>
     <row r="577" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A577" s="4" t="s">
-        <v>899</v>
+        <v>1290</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>900</v>
+        <v>861</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E577" s="4" t="s">
         <v>19</v>
@@ -36132,10 +36135,10 @@
         <v>84</v>
       </c>
       <c r="G577" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H577" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>22</v>
@@ -36169,16 +36172,16 @@
     </row>
     <row r="578" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A578" s="4" t="s">
-        <v>902</v>
+        <v>1291</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E578" s="4" t="s">
         <v>19</v>
@@ -36187,10 +36190,10 @@
         <v>84</v>
       </c>
       <c r="G578" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H578" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>22</v>
@@ -36224,16 +36227,16 @@
     </row>
     <row r="579" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A579" s="4" t="s">
-        <v>904</v>
+        <v>1292</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E579" s="4" t="s">
         <v>19</v>
@@ -36242,10 +36245,10 @@
         <v>84</v>
       </c>
       <c r="G579" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H579" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>22</v>
@@ -36276,16 +36279,16 @@
     </row>
     <row r="580" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A580" s="4" t="s">
-        <v>906</v>
+        <v>1293</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E580" s="4" t="s">
         <v>19</v>
@@ -36294,10 +36297,10 @@
         <v>84</v>
       </c>
       <c r="G580" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H580" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>22</v>
@@ -36331,16 +36334,16 @@
     </row>
     <row r="581" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A581" s="4" t="s">
-        <v>908</v>
+        <v>1294</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>909</v>
+        <v>866</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E581" s="4" t="s">
         <v>19</v>
@@ -36349,10 +36352,10 @@
         <v>84</v>
       </c>
       <c r="G581" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H581" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>22</v>
@@ -36386,16 +36389,16 @@
     </row>
     <row r="582" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A582" s="4" t="s">
-        <v>910</v>
+        <v>1295</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>911</v>
+        <v>867</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E582" s="4" t="s">
         <v>19</v>
@@ -36404,10 +36407,10 @@
         <v>84</v>
       </c>
       <c r="G582" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H582" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>22</v>
@@ -36441,16 +36444,16 @@
     </row>
     <row r="583" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A583" s="4" t="s">
-        <v>912</v>
+        <v>1296</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E583" s="4" t="s">
         <v>19</v>
@@ -36459,10 +36462,10 @@
         <v>84</v>
       </c>
       <c r="G583" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H583" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I583" s="4" t="s">
         <v>22</v>
@@ -36496,16 +36499,16 @@
     </row>
     <row r="584" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A584" s="4" t="s">
-        <v>914</v>
+        <v>1297</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E584" s="4" t="s">
         <v>19</v>
@@ -36514,10 +36517,10 @@
         <v>84</v>
       </c>
       <c r="G584" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H584" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I584" s="4" t="s">
         <v>22</v>
@@ -36551,16 +36554,16 @@
     </row>
     <row r="585" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A585" s="4" t="s">
-        <v>916</v>
+        <v>1298</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>917</v>
+        <v>870</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E585" s="4" t="s">
         <v>19</v>
@@ -36569,10 +36572,10 @@
         <v>84</v>
       </c>
       <c r="G585" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H585" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I585" s="4" t="s">
         <v>22</v>
@@ -36603,16 +36606,16 @@
     </row>
     <row r="586" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A586" s="4" t="s">
-        <v>918</v>
+        <v>1299</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>919</v>
+        <v>871</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E586" s="4" t="s">
         <v>19</v>
@@ -36621,10 +36624,10 @@
         <v>84</v>
       </c>
       <c r="G586" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H586" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I586" s="4" t="s">
         <v>22</v>
@@ -36658,16 +36661,16 @@
     </row>
     <row r="587" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A587" s="4" t="s">
-        <v>920</v>
+        <v>1300</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>921</v>
+        <v>872</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E587" s="4" t="s">
         <v>19</v>
@@ -36676,10 +36679,10 @@
         <v>84</v>
       </c>
       <c r="G587" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H587" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I587" s="4" t="s">
         <v>22</v>
@@ -36710,16 +36713,16 @@
     </row>
     <row r="588" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A588" s="4" t="s">
-        <v>922</v>
+        <v>1301</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E588" s="4" t="s">
         <v>19</v>
@@ -36728,10 +36731,10 @@
         <v>84</v>
       </c>
       <c r="G588" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H588" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I588" s="4" t="s">
         <v>22</v>
@@ -36762,16 +36765,16 @@
     </row>
     <row r="589" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A589" s="4" t="s">
-        <v>924</v>
+        <v>1302</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E589" s="4" t="s">
         <v>19</v>
@@ -36780,10 +36783,10 @@
         <v>84</v>
       </c>
       <c r="G589" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H589" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I589" s="4" t="s">
         <v>22</v>
@@ -36814,16 +36817,16 @@
     </row>
     <row r="590" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A590" s="4" t="s">
-        <v>926</v>
+        <v>1303</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>927</v>
+        <v>875</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E590" s="4" t="s">
         <v>19</v>
@@ -36832,10 +36835,10 @@
         <v>84</v>
       </c>
       <c r="G590" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H590" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I590" s="4" t="s">
         <v>22</v>
@@ -36866,16 +36869,16 @@
     </row>
     <row r="591" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A591" s="4" t="s">
-        <v>928</v>
+        <v>1304</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>929</v>
+        <v>876</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E591" s="4" t="s">
         <v>19</v>
@@ -36884,10 +36887,10 @@
         <v>84</v>
       </c>
       <c r="G591" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H591" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I591" s="4" t="s">
         <v>22</v>
@@ -36918,16 +36921,16 @@
     </row>
     <row r="592" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A592" s="4" t="s">
-        <v>930</v>
+        <v>1305</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>931</v>
+        <v>877</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E592" s="4" t="s">
         <v>19</v>
@@ -36936,10 +36939,10 @@
         <v>201</v>
       </c>
       <c r="G592" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H592" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I592" s="4" t="s">
         <v>22</v>
@@ -36970,16 +36973,16 @@
     </row>
     <row r="593" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A593" s="4" t="s">
-        <v>932</v>
+        <v>1306</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E593" s="4" t="s">
         <v>19</v>
@@ -36988,10 +36991,10 @@
         <v>201</v>
       </c>
       <c r="G593" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H593" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I593" s="4" t="s">
         <v>22</v>
@@ -37022,16 +37025,16 @@
     </row>
     <row r="594" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A594" s="4" t="s">
-        <v>934</v>
+        <v>1307</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>935</v>
+        <v>879</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E594" s="4" t="s">
         <v>19</v>
@@ -37040,10 +37043,10 @@
         <v>201</v>
       </c>
       <c r="G594" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H594" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I594" s="4" t="s">
         <v>22</v>
@@ -37074,16 +37077,16 @@
     </row>
     <row r="595" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A595" s="4" t="s">
-        <v>936</v>
+        <v>1308</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>937</v>
+        <v>880</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E595" s="4" t="s">
         <v>19</v>
@@ -37092,10 +37095,10 @@
         <v>201</v>
       </c>
       <c r="G595" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H595" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I595" s="4" t="s">
         <v>22</v>
@@ -37129,16 +37132,16 @@
     </row>
     <row r="596" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A596" s="4" t="s">
-        <v>938</v>
+        <v>1309</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E596" s="4" t="s">
         <v>19</v>
@@ -37147,10 +37150,10 @@
         <v>201</v>
       </c>
       <c r="G596" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H596" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I596" s="4" t="s">
         <v>22</v>
@@ -37181,16 +37184,16 @@
     </row>
     <row r="597" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A597" s="4" t="s">
-        <v>940</v>
+        <v>1310</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E597" s="4" t="s">
         <v>19</v>
@@ -37199,10 +37202,10 @@
         <v>201</v>
       </c>
       <c r="G597" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H597" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I597" s="4" t="s">
         <v>22</v>
@@ -37233,16 +37236,16 @@
     </row>
     <row r="598" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A598" s="4" t="s">
-        <v>942</v>
+        <v>1311</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>943</v>
+        <v>883</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E598" s="4" t="s">
         <v>19</v>
@@ -37251,10 +37254,10 @@
         <v>201</v>
       </c>
       <c r="G598" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H598" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I598" s="4" t="s">
         <v>22</v>
@@ -37285,16 +37288,16 @@
     </row>
     <row r="599" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A599" s="4" t="s">
-        <v>944</v>
+        <v>1312</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>945</v>
+        <v>884</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E599" s="4" t="s">
         <v>19</v>
@@ -37303,10 +37306,10 @@
         <v>201</v>
       </c>
       <c r="G599" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H599" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>22</v>
@@ -37337,16 +37340,16 @@
     </row>
     <row r="600" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A600" s="4" t="s">
-        <v>946</v>
+        <v>1313</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>947</v>
+        <v>885</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E600" s="4" t="s">
         <v>19</v>
@@ -37355,10 +37358,10 @@
         <v>201</v>
       </c>
       <c r="G600" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H600" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>22</v>
@@ -37389,16 +37392,16 @@
     </row>
     <row r="601" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A601" s="4" t="s">
-        <v>948</v>
+        <v>1314</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>949</v>
+        <v>886</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E601" s="4" t="s">
         <v>19</v>
@@ -37407,10 +37410,10 @@
         <v>201</v>
       </c>
       <c r="G601" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H601" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>22</v>
@@ -37441,16 +37444,16 @@
     </row>
     <row r="602" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A602" s="4" t="s">
-        <v>950</v>
+        <v>1315</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>951</v>
+        <v>887</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E602" s="4" t="s">
         <v>19</v>
@@ -37459,10 +37462,10 @@
         <v>201</v>
       </c>
       <c r="G602" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H602" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I602" s="4" t="s">
         <v>22</v>
@@ -37493,16 +37496,16 @@
     </row>
     <row r="603" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A603" s="4" t="s">
-        <v>952</v>
+        <v>1316</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>953</v>
+        <v>888</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E603" s="4" t="s">
         <v>19</v>
@@ -37511,10 +37514,10 @@
         <v>201</v>
       </c>
       <c r="G603" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H603" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I603" s="4" t="s">
         <v>22</v>
@@ -37545,16 +37548,16 @@
     </row>
     <row r="604" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A604" s="4" t="s">
-        <v>954</v>
+        <v>1317</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>955</v>
+        <v>889</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E604" s="4" t="s">
         <v>19</v>
@@ -37563,10 +37566,10 @@
         <v>201</v>
       </c>
       <c r="G604" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H604" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I604" s="4" t="s">
         <v>22</v>
@@ -37597,16 +37600,16 @@
     </row>
     <row r="605" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A605" s="4" t="s">
-        <v>956</v>
+        <v>1318</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>957</v>
+        <v>890</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E605" s="4" t="s">
         <v>19</v>
@@ -37615,10 +37618,10 @@
         <v>201</v>
       </c>
       <c r="G605" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H605" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I605" s="4" t="s">
         <v>22</v>
@@ -37649,16 +37652,16 @@
     </row>
     <row r="606" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A606" s="4" t="s">
-        <v>958</v>
+        <v>1319</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>959</v>
+        <v>891</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E606" s="4" t="s">
         <v>19</v>
@@ -37667,10 +37670,10 @@
         <v>201</v>
       </c>
       <c r="G606" s="6" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="H606" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I606" s="4" t="s">
         <v>22</v>
@@ -37701,16 +37704,16 @@
     </row>
     <row r="607" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A607" s="4" t="s">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>961</v>
+        <v>892</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E607" s="4" t="s">
         <v>19</v>
@@ -37722,7 +37725,7 @@
         <v>47</v>
       </c>
       <c r="H607" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I607" s="4" t="s">
         <v>22</v>
@@ -37734,7 +37737,7 @@
         <v>200</v>
       </c>
       <c r="L607" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M607" s="7">
         <v>74</v>
@@ -37753,16 +37756,16 @@
     </row>
     <row r="608" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A608" s="4" t="s">
-        <v>963</v>
+        <v>1321</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>964</v>
+        <v>894</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E608" s="4" t="s">
         <v>19</v>
@@ -37774,7 +37777,7 @@
         <v>47</v>
       </c>
       <c r="H608" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I608" s="4" t="s">
         <v>22</v>
@@ -37786,7 +37789,7 @@
         <v>200</v>
       </c>
       <c r="L608" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M608" s="7">
         <v>70</v>
@@ -37805,16 +37808,16 @@
     </row>
     <row r="609" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A609" s="4" t="s">
-        <v>965</v>
+        <v>1322</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>966</v>
+        <v>895</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E609" s="4" t="s">
         <v>19</v>
@@ -37826,7 +37829,7 @@
         <v>47</v>
       </c>
       <c r="H609" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I609" s="4" t="s">
         <v>22</v>
@@ -37838,7 +37841,7 @@
         <v>200</v>
       </c>
       <c r="L609" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M609" s="7">
         <v>74</v>
@@ -37857,16 +37860,16 @@
     </row>
     <row r="610" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A610" s="4" t="s">
-        <v>967</v>
+        <v>1323</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>968</v>
+        <v>896</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E610" s="4" t="s">
         <v>19</v>
@@ -37878,7 +37881,7 @@
         <v>47</v>
       </c>
       <c r="H610" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I610" s="4" t="s">
         <v>22</v>
@@ -37890,7 +37893,7 @@
         <v>200</v>
       </c>
       <c r="L610" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M610" s="7">
         <v>74</v>
@@ -37909,16 +37912,16 @@
     </row>
     <row r="611" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A611" s="4" t="s">
-        <v>969</v>
+        <v>1324</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>970</v>
+        <v>897</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E611" s="4" t="s">
         <v>19</v>
@@ -37930,7 +37933,7 @@
         <v>47</v>
       </c>
       <c r="H611" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>22</v>
@@ -37942,7 +37945,7 @@
         <v>200</v>
       </c>
       <c r="L611" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M611" s="7">
         <v>74</v>
@@ -37961,16 +37964,16 @@
     </row>
     <row r="612" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A612" s="4" t="s">
-        <v>971</v>
+        <v>1325</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>972</v>
+        <v>898</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1318</v>
+        <v>1244</v>
       </c>
       <c r="E612" s="4" t="s">
         <v>19</v>
@@ -37982,7 +37985,7 @@
         <v>47</v>
       </c>
       <c r="H612" s="4" t="s">
-        <v>1325</v>
+        <v>1251</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>22</v>
@@ -37994,7 +37997,7 @@
         <v>200</v>
       </c>
       <c r="L612" s="4" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="M612" s="7">
         <v>74</v>
